--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,54 +399,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B2">
-        <v>2029069</v>
+        <v>700197.33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B3">
-        <v>2611770.95</v>
+        <v>1741717.08</v>
       </c>
       <c r="C3">
-        <v>28.71770008806995</v>
+        <v>148.746604046605</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B4">
-        <v>3066686.01</v>
+        <v>3313857.03</v>
       </c>
       <c r="C4">
-        <v>17.41787732189914</v>
+        <v>90.26379588583926</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B5">
-        <v>4469987.22</v>
+        <v>6564496.12</v>
       </c>
       <c r="C5">
-        <v>45.7595334319864</v>
+        <v>98.09231540685992</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6">
+        <v>7360567.04</v>
+      </c>
+      <c r="C6">
+        <v>12.12691584316148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7">
+        <v>6932834.57</v>
+      </c>
+      <c r="C7">
+        <v>-5.811134762791315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>2024</v>
       </c>
-      <c r="B6">
-        <v>6505658.63</v>
-      </c>
-      <c r="C6">
-        <v>45.54087763141301</v>
+      <c r="B8">
+        <v>9425497.51</v>
+      </c>
+      <c r="C8">
+        <v>35.95445578330019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9">
+        <v>3265484.16</v>
+      </c>
+      <c r="C9">
+        <v>-65.35478199919443</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -14,15 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Ano</t>
   </si>
   <si>
-    <t>total_item</t>
-  </si>
-  <si>
-    <t>Evolucao (%)</t>
+    <t>Produtos</t>
+  </si>
+  <si>
+    <t>Serviços</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Serviços (%)</t>
+  </si>
+  <si>
+    <t>Produtos (%)</t>
+  </si>
+  <si>
+    <t>Evolução Serviços (%)</t>
+  </si>
+  <si>
+    <t>Evolução Produtos (%)</t>
+  </si>
+  <si>
+    <t>Evolução Total (%)</t>
+  </si>
+  <si>
+    <t>Qtd Produtos</t>
+  </si>
+  <si>
+    <t>Qtd Serviços</t>
+  </si>
+  <si>
+    <t>Total Itens</t>
   </si>
 </sst>
 </file>
@@ -380,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,90 +423,327 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>700197.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>484712.74</v>
+      </c>
+      <c r="C2">
+        <v>234945</v>
+      </c>
+      <c r="D2">
+        <v>719657.74</v>
+      </c>
+      <c r="E2">
+        <v>32.64676900438811</v>
+      </c>
+      <c r="F2">
+        <v>67.3532309956119</v>
+      </c>
+      <c r="J2">
+        <v>1780</v>
+      </c>
+      <c r="K2">
+        <v>1351</v>
+      </c>
+      <c r="L2">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>1741717.08</v>
+        <v>1161517.53</v>
       </c>
       <c r="C3">
-        <v>148.746604046605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>635735.5600000001</v>
+      </c>
+      <c r="D3">
+        <v>1797253.09</v>
+      </c>
+      <c r="E3">
+        <v>35.37262300659057</v>
+      </c>
+      <c r="F3">
+        <v>64.62737699340943</v>
+      </c>
+      <c r="G3">
+        <v>170.5890995764967</v>
+      </c>
+      <c r="H3">
+        <v>139.6300806948049</v>
+      </c>
+      <c r="I3">
+        <v>149.7372000751357</v>
+      </c>
+      <c r="J3">
+        <v>19043</v>
+      </c>
+      <c r="K3">
+        <v>3095</v>
+      </c>
+      <c r="L3">
+        <v>22138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>3313857.03</v>
+        <v>2259471.49</v>
       </c>
       <c r="C4">
-        <v>90.26379588583926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1114043</v>
+      </c>
+      <c r="D4">
+        <v>3373514.49</v>
+      </c>
+      <c r="E4">
+        <v>33.02321668699872</v>
+      </c>
+      <c r="F4">
+        <v>66.97678331300128</v>
+      </c>
+      <c r="G4">
+        <v>75.23685477024441</v>
+      </c>
+      <c r="H4">
+        <v>94.52754105226464</v>
+      </c>
+      <c r="I4">
+        <v>87.70391931834153</v>
+      </c>
+      <c r="J4">
+        <v>42777</v>
+      </c>
+      <c r="K4">
+        <v>4019</v>
+      </c>
+      <c r="L4">
+        <v>46796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2021</v>
       </c>
       <c r="B5">
-        <v>6564496.12</v>
+        <v>5399571.25</v>
       </c>
       <c r="C5">
-        <v>98.09231540685992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1275732.01</v>
+      </c>
+      <c r="D5">
+        <v>6675303.26</v>
+      </c>
+      <c r="E5">
+        <v>19.11122177241727</v>
+      </c>
+      <c r="F5">
+        <v>80.88877822758272</v>
+      </c>
+      <c r="G5">
+        <v>14.51371356401863</v>
+      </c>
+      <c r="H5">
+        <v>138.9749671061351</v>
+      </c>
+      <c r="I5">
+        <v>97.87385765756707</v>
+      </c>
+      <c r="J5">
+        <v>64210</v>
+      </c>
+      <c r="K5">
+        <v>3896</v>
+      </c>
+      <c r="L5">
+        <v>68106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>7360567.04</v>
+        <v>6143248.8</v>
       </c>
       <c r="C6">
-        <v>12.12691584316148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1358552.5</v>
+      </c>
+      <c r="D6">
+        <v>7501801.3</v>
+      </c>
+      <c r="E6">
+        <v>18.10968387019262</v>
+      </c>
+      <c r="F6">
+        <v>81.89031612980739</v>
+      </c>
+      <c r="G6">
+        <v>6.49199748464413</v>
+      </c>
+      <c r="H6">
+        <v>13.77290002423803</v>
+      </c>
+      <c r="I6">
+        <v>12.38143059286267</v>
+      </c>
+      <c r="J6">
+        <v>67109</v>
+      </c>
+      <c r="K6">
+        <v>3959</v>
+      </c>
+      <c r="L6">
+        <v>71068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>6932834.57</v>
+        <v>5961894</v>
       </c>
       <c r="C7">
-        <v>-5.811134762791315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1198106.18</v>
+      </c>
+      <c r="D7">
+        <v>7160000.18</v>
+      </c>
+      <c r="E7">
+        <v>16.73332611564264</v>
+      </c>
+      <c r="F7">
+        <v>83.26667388435737</v>
+      </c>
+      <c r="G7">
+        <v>-11.81009346344731</v>
+      </c>
+      <c r="H7">
+        <v>-2.952099221506377</v>
+      </c>
+      <c r="I7">
+        <v>-4.556253975961743</v>
+      </c>
+      <c r="J7">
+        <v>70506</v>
+      </c>
+      <c r="K7">
+        <v>3843</v>
+      </c>
+      <c r="L7">
+        <v>74349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>9425497.51</v>
+        <v>8510815.33</v>
       </c>
       <c r="C8">
-        <v>35.95445578330019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1052835.53</v>
+      </c>
+      <c r="D8">
+        <v>9563650.859999999</v>
+      </c>
+      <c r="E8">
+        <v>11.00871984362675</v>
+      </c>
+      <c r="F8">
+        <v>88.99128015637326</v>
+      </c>
+      <c r="G8">
+        <v>-12.12502300922944</v>
+      </c>
+      <c r="H8">
+        <v>42.75354996247837</v>
+      </c>
+      <c r="I8">
+        <v>33.57053937951158</v>
+      </c>
+      <c r="J8">
+        <v>73484</v>
+      </c>
+      <c r="K8">
+        <v>3279</v>
+      </c>
+      <c r="L8">
+        <v>76763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3265484.16</v>
+        <v>3098380.93</v>
       </c>
       <c r="C9">
-        <v>-65.35478199919443</v>
+        <v>322046.99</v>
+      </c>
+      <c r="D9">
+        <v>3420427.92</v>
+      </c>
+      <c r="E9">
+        <v>9.415400573621795</v>
+      </c>
+      <c r="F9">
+        <v>90.5845994263782</v>
+      </c>
+      <c r="G9">
+        <v>-69.4114625861838</v>
+      </c>
+      <c r="H9">
+        <v>-63.59478134746463</v>
+      </c>
+      <c r="I9">
+        <v>-64.23512348923201</v>
+      </c>
+      <c r="J9">
+        <v>22866</v>
+      </c>
+      <c r="K9">
+        <v>908</v>
+      </c>
+      <c r="L9">
+        <v>23774</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3098380.93</v>
+        <v>3119447.96</v>
       </c>
       <c r="C9">
-        <v>322046.99</v>
+        <v>324756.99</v>
       </c>
       <c r="D9">
-        <v>3420427.92</v>
+        <v>3444204.95</v>
       </c>
       <c r="E9">
-        <v>9.415400573621795</v>
+        <v>9.429084352253774</v>
       </c>
       <c r="F9">
-        <v>90.5845994263782</v>
+        <v>90.57091564774622</v>
       </c>
       <c r="G9">
-        <v>-69.4114625861838</v>
+        <v>-69.15406245835948</v>
       </c>
       <c r="H9">
-        <v>-63.59478134746463</v>
+        <v>-63.34724889395527</v>
       </c>
       <c r="I9">
-        <v>-64.23512348923201</v>
+        <v>-63.98650473110224</v>
       </c>
       <c r="J9">
-        <v>22866</v>
+        <v>23100</v>
       </c>
       <c r="K9">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="L9">
-        <v>23774</v>
+        <v>24018</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -456,28 +456,28 @@
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>484712.74</v>
+        <v>346765</v>
       </c>
       <c r="C2">
-        <v>234945</v>
+        <v>228720</v>
       </c>
       <c r="D2">
-        <v>719657.74</v>
+        <v>575485</v>
       </c>
       <c r="E2">
-        <v>32.64676900438811</v>
+        <v>39.74386821550519</v>
       </c>
       <c r="F2">
-        <v>67.3532309956119</v>
+        <v>60.25613178449481</v>
       </c>
       <c r="J2">
-        <v>1780</v>
+        <v>1427</v>
       </c>
       <c r="K2">
-        <v>1351</v>
+        <v>1322</v>
       </c>
       <c r="L2">
-        <v>3131</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -485,37 +485,37 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>1161517.53</v>
+        <v>1000446.64</v>
       </c>
       <c r="C3">
-        <v>635735.5600000001</v>
+        <v>623805.5600000001</v>
       </c>
       <c r="D3">
-        <v>1797253.09</v>
+        <v>1624252.2</v>
       </c>
       <c r="E3">
-        <v>35.37262300659057</v>
+        <v>38.40570817758474</v>
       </c>
       <c r="F3">
-        <v>64.62737699340943</v>
+        <v>61.59429182241526</v>
       </c>
       <c r="G3">
-        <v>170.5890995764967</v>
+        <v>172.7376530255334</v>
       </c>
       <c r="H3">
-        <v>139.6300806948049</v>
+        <v>188.5085403659539</v>
       </c>
       <c r="I3">
-        <v>149.7372000751357</v>
+        <v>182.2405796849614</v>
       </c>
       <c r="J3">
-        <v>19043</v>
+        <v>17636</v>
       </c>
       <c r="K3">
-        <v>3095</v>
+        <v>3034</v>
       </c>
       <c r="L3">
-        <v>22138</v>
+        <v>20670</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -523,37 +523,37 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>2259471.49</v>
+        <v>1743215.87</v>
       </c>
       <c r="C4">
-        <v>1114043</v>
+        <v>1090403</v>
       </c>
       <c r="D4">
-        <v>3373514.49</v>
+        <v>2833618.87</v>
       </c>
       <c r="E4">
-        <v>33.02321668699872</v>
+        <v>38.48093374674626</v>
       </c>
       <c r="F4">
-        <v>66.97678331300128</v>
+        <v>61.51906625325374</v>
       </c>
       <c r="G4">
-        <v>75.23685477024441</v>
+        <v>74.79853818552048</v>
       </c>
       <c r="H4">
-        <v>94.52754105226464</v>
+        <v>74.24376276579829</v>
       </c>
       <c r="I4">
-        <v>87.70391931834153</v>
+        <v>74.45682819453776</v>
       </c>
       <c r="J4">
-        <v>42777</v>
+        <v>34974</v>
       </c>
       <c r="K4">
-        <v>4019</v>
+        <v>3932</v>
       </c>
       <c r="L4">
-        <v>46796</v>
+        <v>38906</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -561,37 +561,37 @@
         <v>2021</v>
       </c>
       <c r="B5">
-        <v>5399571.25</v>
+        <v>3719900.83</v>
       </c>
       <c r="C5">
-        <v>1275732.01</v>
+        <v>1194732.01</v>
       </c>
       <c r="D5">
-        <v>6675303.26</v>
+        <v>4914632.84</v>
       </c>
       <c r="E5">
-        <v>19.11122177241727</v>
+        <v>24.30969003983622</v>
       </c>
       <c r="F5">
-        <v>80.88877822758272</v>
+        <v>75.69030996016379</v>
       </c>
       <c r="G5">
-        <v>14.51371356401863</v>
+        <v>9.567931306131761</v>
       </c>
       <c r="H5">
-        <v>138.9749671061351</v>
+        <v>113.3930108151206</v>
       </c>
       <c r="I5">
-        <v>97.87385765756707</v>
+        <v>73.44015075676002</v>
       </c>
       <c r="J5">
-        <v>64210</v>
+        <v>50119</v>
       </c>
       <c r="K5">
-        <v>3896</v>
+        <v>3672</v>
       </c>
       <c r="L5">
-        <v>68106</v>
+        <v>53791</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -599,37 +599,37 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>6143248.8</v>
+        <v>3877218.12</v>
       </c>
       <c r="C6">
-        <v>1358552.5</v>
+        <v>1324727.5</v>
       </c>
       <c r="D6">
-        <v>7501801.3</v>
+        <v>5201945.62</v>
       </c>
       <c r="E6">
-        <v>18.10968387019262</v>
+        <v>25.46600054615719</v>
       </c>
       <c r="F6">
-        <v>81.89031612980739</v>
+        <v>74.53399945384281</v>
       </c>
       <c r="G6">
-        <v>6.49199748464413</v>
+        <v>10.88072378675113</v>
       </c>
       <c r="H6">
-        <v>13.77290002423803</v>
+        <v>4.229072149754054</v>
       </c>
       <c r="I6">
-        <v>12.38143059286267</v>
+        <v>5.846068045237751</v>
       </c>
       <c r="J6">
-        <v>67109</v>
+        <v>57665</v>
       </c>
       <c r="K6">
-        <v>3959</v>
+        <v>3867</v>
       </c>
       <c r="L6">
-        <v>71068</v>
+        <v>61532</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -637,37 +637,37 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>5961894</v>
+        <v>3374358.05</v>
       </c>
       <c r="C7">
-        <v>1198106.18</v>
+        <v>1182091.18</v>
       </c>
       <c r="D7">
-        <v>7160000.18</v>
+        <v>4556449.23</v>
       </c>
       <c r="E7">
-        <v>16.73332611564264</v>
+        <v>25.94325362427006</v>
       </c>
       <c r="F7">
-        <v>83.26667388435737</v>
+        <v>74.05674637572996</v>
       </c>
       <c r="G7">
-        <v>-11.81009346344731</v>
+        <v>-10.76721967348002</v>
       </c>
       <c r="H7">
-        <v>-2.952099221506377</v>
+        <v>-12.96961002544784</v>
       </c>
       <c r="I7">
-        <v>-4.556253975961743</v>
+        <v>-12.40874928638721</v>
       </c>
       <c r="J7">
-        <v>70506</v>
+        <v>57771</v>
       </c>
       <c r="K7">
-        <v>3843</v>
+        <v>3793</v>
       </c>
       <c r="L7">
-        <v>74349</v>
+        <v>61564</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -675,37 +675,37 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>8510815.33</v>
+        <v>5537522.38</v>
       </c>
       <c r="C8">
-        <v>1052835.53</v>
+        <v>1034714.53</v>
       </c>
       <c r="D8">
-        <v>9563650.859999999</v>
+        <v>6572236.91</v>
       </c>
       <c r="E8">
-        <v>11.00871984362675</v>
+        <v>15.74371928719776</v>
       </c>
       <c r="F8">
-        <v>88.99128015637326</v>
+        <v>84.25628071280224</v>
       </c>
       <c r="G8">
-        <v>-12.12502300922944</v>
+        <v>-12.46745196085466</v>
       </c>
       <c r="H8">
-        <v>42.75354996247837</v>
+        <v>64.10595135273212</v>
       </c>
       <c r="I8">
-        <v>33.57053937951158</v>
+        <v>44.24031912235311</v>
       </c>
       <c r="J8">
-        <v>73484</v>
+        <v>64032</v>
       </c>
       <c r="K8">
-        <v>3279</v>
+        <v>3217</v>
       </c>
       <c r="L8">
-        <v>76763</v>
+        <v>67249</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3119447.96</v>
+        <v>2240499.41</v>
       </c>
       <c r="C9">
-        <v>324756.99</v>
+        <v>320136.99</v>
       </c>
       <c r="D9">
-        <v>3444204.95</v>
+        <v>2560636.4</v>
       </c>
       <c r="E9">
-        <v>9.429084352253774</v>
+        <v>12.5022431923564</v>
       </c>
       <c r="F9">
-        <v>90.57091564774622</v>
+        <v>87.49775680764358</v>
       </c>
       <c r="G9">
-        <v>-69.15406245835948</v>
+        <v>-69.06035619312314</v>
       </c>
       <c r="H9">
-        <v>-63.34724889395527</v>
+        <v>-59.53967756244083</v>
       </c>
       <c r="I9">
-        <v>-63.98650473110224</v>
+        <v>-61.03858648029168</v>
       </c>
       <c r="J9">
-        <v>23100</v>
+        <v>21853</v>
       </c>
       <c r="K9">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="L9">
-        <v>24018</v>
+        <v>22775</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2240499.41</v>
+        <v>2266038.68</v>
       </c>
       <c r="C9">
-        <v>320136.99</v>
+        <v>325971.99</v>
       </c>
       <c r="D9">
-        <v>2560636.4</v>
+        <v>2592010.67</v>
       </c>
       <c r="E9">
-        <v>12.5022431923564</v>
+        <v>12.57602809173621</v>
       </c>
       <c r="F9">
-        <v>87.49775680764358</v>
+        <v>87.42397190826379</v>
       </c>
       <c r="G9">
-        <v>-69.06035619312314</v>
+        <v>-68.49643253777445</v>
       </c>
       <c r="H9">
-        <v>-59.53967756244083</v>
+        <v>-59.07847364763155</v>
       </c>
       <c r="I9">
-        <v>-61.03858648029168</v>
+        <v>-60.56121065787934</v>
       </c>
       <c r="J9">
-        <v>21853</v>
+        <v>22166</v>
       </c>
       <c r="K9">
-        <v>922</v>
+        <v>938</v>
       </c>
       <c r="L9">
-        <v>22775</v>
+        <v>23104</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2266038.68</v>
+        <v>2402892.39</v>
       </c>
       <c r="C9">
-        <v>325971.99</v>
+        <v>341456.99</v>
       </c>
       <c r="D9">
-        <v>2592010.67</v>
+        <v>2744349.38</v>
       </c>
       <c r="E9">
-        <v>12.57602809173621</v>
+        <v>12.44218365520209</v>
       </c>
       <c r="F9">
-        <v>87.42397190826379</v>
+        <v>87.55781634479791</v>
       </c>
       <c r="G9">
-        <v>-68.49643253777445</v>
+        <v>-66.99988449954404</v>
       </c>
       <c r="H9">
-        <v>-59.07847364763155</v>
+        <v>-56.60708480965091</v>
       </c>
       <c r="I9">
-        <v>-60.56121065787934</v>
+        <v>-58.24329801890845</v>
       </c>
       <c r="J9">
-        <v>22166</v>
+        <v>23656</v>
       </c>
       <c r="K9">
-        <v>938</v>
+        <v>981</v>
       </c>
       <c r="L9">
-        <v>23104</v>
+        <v>24637</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2402892.39</v>
+        <v>2506534.94</v>
       </c>
       <c r="C9">
-        <v>341456.99</v>
+        <v>357966.99</v>
       </c>
       <c r="D9">
-        <v>2744349.38</v>
+        <v>2864501.93</v>
       </c>
       <c r="E9">
-        <v>12.44218365520209</v>
+        <v>12.49665731591949</v>
       </c>
       <c r="F9">
-        <v>87.55781634479791</v>
+        <v>87.50334268408052</v>
       </c>
       <c r="G9">
-        <v>-66.99988449954404</v>
+        <v>-65.40427532219925</v>
       </c>
       <c r="H9">
-        <v>-56.60708480965091</v>
+        <v>-54.73544361548927</v>
       </c>
       <c r="I9">
-        <v>-58.24329801890845</v>
+        <v>-56.41511453061725</v>
       </c>
       <c r="J9">
-        <v>23656</v>
+        <v>24802</v>
       </c>
       <c r="K9">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="L9">
-        <v>24637</v>
+        <v>25836</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2506534.94</v>
+        <v>2535792.38</v>
       </c>
       <c r="C9">
-        <v>357966.99</v>
+        <v>360196.99</v>
       </c>
       <c r="D9">
-        <v>2864501.93</v>
+        <v>2895989.37</v>
       </c>
       <c r="E9">
-        <v>12.49665731591949</v>
+        <v>12.43778702129697</v>
       </c>
       <c r="F9">
-        <v>87.50334268408052</v>
+        <v>87.56221297870302</v>
       </c>
       <c r="G9">
-        <v>-65.40427532219925</v>
+        <v>-65.18875694149187</v>
       </c>
       <c r="H9">
-        <v>-54.73544361548927</v>
+        <v>-54.20709468988187</v>
       </c>
       <c r="I9">
-        <v>-56.41511453061725</v>
+        <v>-55.9360167678435</v>
       </c>
       <c r="J9">
-        <v>24802</v>
+        <v>25089</v>
       </c>
       <c r="K9">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="L9">
-        <v>25836</v>
+        <v>26131</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2535792.38</v>
+        <v>2554225.24</v>
       </c>
       <c r="C9">
-        <v>360196.99</v>
+        <v>368296.99</v>
       </c>
       <c r="D9">
-        <v>2895989.37</v>
+        <v>2922522.23</v>
       </c>
       <c r="E9">
-        <v>12.43778702129697</v>
+        <v>12.60202527184883</v>
       </c>
       <c r="F9">
-        <v>87.56221297870302</v>
+        <v>87.39797472815115</v>
       </c>
       <c r="G9">
-        <v>-65.18875694149187</v>
+        <v>-64.40593232995384</v>
       </c>
       <c r="H9">
-        <v>-54.20709468988187</v>
+        <v>-53.87422271691116</v>
       </c>
       <c r="I9">
-        <v>-55.9360167678435</v>
+        <v>-55.53230551453142</v>
       </c>
       <c r="J9">
-        <v>25089</v>
+        <v>25323</v>
       </c>
       <c r="K9">
-        <v>1042</v>
+        <v>1061</v>
       </c>
       <c r="L9">
-        <v>26131</v>
+        <v>26384</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2554225.24</v>
+        <v>2589270.31</v>
       </c>
       <c r="C9">
-        <v>368296.99</v>
+        <v>369816.99</v>
       </c>
       <c r="D9">
-        <v>2922522.23</v>
+        <v>2959087.3</v>
       </c>
       <c r="E9">
-        <v>12.60202527184883</v>
+        <v>12.49767081897178</v>
       </c>
       <c r="F9">
-        <v>87.39797472815115</v>
+        <v>87.50232918102823</v>
       </c>
       <c r="G9">
-        <v>-64.40593232995384</v>
+        <v>-64.25903190902325</v>
       </c>
       <c r="H9">
-        <v>-53.87422271691116</v>
+        <v>-53.24135719339522</v>
       </c>
       <c r="I9">
-        <v>-55.53230551453142</v>
+        <v>-54.97594897260026</v>
       </c>
       <c r="J9">
-        <v>25323</v>
+        <v>25544</v>
       </c>
       <c r="K9">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="L9">
-        <v>26384</v>
+        <v>26610</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2589270.31</v>
+        <v>2646143.56</v>
       </c>
       <c r="C9">
-        <v>369816.99</v>
+        <v>401026.99</v>
       </c>
       <c r="D9">
-        <v>2959087.3</v>
+        <v>3047170.55</v>
       </c>
       <c r="E9">
-        <v>12.49767081897178</v>
+        <v>13.16063487158604</v>
       </c>
       <c r="F9">
-        <v>87.50232918102823</v>
+        <v>86.83936512841397</v>
       </c>
       <c r="G9">
-        <v>-64.25903190902325</v>
+        <v>-61.24274102925761</v>
       </c>
       <c r="H9">
-        <v>-53.24135719339522</v>
+        <v>-52.21430491085437</v>
       </c>
       <c r="I9">
-        <v>-54.97594897260026</v>
+        <v>-53.63571654935976</v>
       </c>
       <c r="J9">
-        <v>25544</v>
+        <v>26309</v>
       </c>
       <c r="K9">
-        <v>1066</v>
+        <v>1120</v>
       </c>
       <c r="L9">
-        <v>26610</v>
+        <v>27429</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2646143.56</v>
+        <v>2671452.23</v>
       </c>
       <c r="C9">
-        <v>401026.99</v>
+        <v>403656.99</v>
       </c>
       <c r="D9">
-        <v>3047170.55</v>
+        <v>3075109.22</v>
       </c>
       <c r="E9">
-        <v>13.16063487158604</v>
+        <v>13.12659034595201</v>
       </c>
       <c r="F9">
-        <v>86.83936512841397</v>
+        <v>86.873409654048</v>
       </c>
       <c r="G9">
-        <v>-61.24274102925761</v>
+        <v>-60.98856464304217</v>
       </c>
       <c r="H9">
-        <v>-52.21430491085437</v>
+        <v>-51.75726531330064</v>
       </c>
       <c r="I9">
-        <v>-53.63571654935976</v>
+        <v>-53.21061516633612</v>
       </c>
       <c r="J9">
-        <v>26309</v>
+        <v>26577</v>
       </c>
       <c r="K9">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="L9">
-        <v>27429</v>
+        <v>27706</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2671452.23</v>
+        <v>2716561.69</v>
       </c>
       <c r="C9">
-        <v>403656.99</v>
+        <v>416701.99</v>
       </c>
       <c r="D9">
-        <v>3075109.22</v>
+        <v>3133263.68</v>
       </c>
       <c r="E9">
-        <v>13.12659034595201</v>
+        <v>13.29929532135642</v>
       </c>
       <c r="F9">
-        <v>86.873409654048</v>
+        <v>86.70070467864358</v>
       </c>
       <c r="G9">
-        <v>-60.98856464304217</v>
+        <v>-59.72783043841088</v>
       </c>
       <c r="H9">
-        <v>-51.75726531330064</v>
+        <v>-50.94265081778324</v>
       </c>
       <c r="I9">
-        <v>-53.21061516633612</v>
+        <v>-52.32576483613096</v>
       </c>
       <c r="J9">
-        <v>26577</v>
+        <v>26997</v>
       </c>
       <c r="K9">
-        <v>1129</v>
+        <v>1149</v>
       </c>
       <c r="L9">
-        <v>27706</v>
+        <v>28146</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2716561.69</v>
+        <v>2742947.48</v>
       </c>
       <c r="C9">
-        <v>416701.99</v>
+        <v>418881.99</v>
       </c>
       <c r="D9">
-        <v>3133263.68</v>
+        <v>3161829.47</v>
       </c>
       <c r="E9">
-        <v>13.29929532135642</v>
+        <v>13.24808924625527</v>
       </c>
       <c r="F9">
-        <v>86.70070467864358</v>
+        <v>86.75191075374474</v>
       </c>
       <c r="G9">
-        <v>-59.72783043841088</v>
+        <v>-59.517144308392</v>
       </c>
       <c r="H9">
-        <v>-50.94265081778324</v>
+        <v>-50.46615992186744</v>
       </c>
       <c r="I9">
-        <v>-52.32576483613096</v>
+        <v>-51.89112149640997</v>
       </c>
       <c r="J9">
-        <v>26997</v>
+        <v>27232</v>
       </c>
       <c r="K9">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="L9">
-        <v>28146</v>
+        <v>28387</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2742947.48</v>
+        <v>2788505.39</v>
       </c>
       <c r="C9">
-        <v>418881.99</v>
+        <v>434231.99</v>
       </c>
       <c r="D9">
-        <v>3161829.47</v>
+        <v>3222737.38</v>
       </c>
       <c r="E9">
-        <v>13.24808924625527</v>
+        <v>13.47401102847543</v>
       </c>
       <c r="F9">
-        <v>86.75191075374474</v>
+        <v>86.52598897152458</v>
       </c>
       <c r="G9">
-        <v>-59.517144308392</v>
+        <v>-58.03364334702056</v>
       </c>
       <c r="H9">
-        <v>-50.46615992186744</v>
+        <v>-49.6434470392154</v>
       </c>
       <c r="I9">
-        <v>-51.89112149640997</v>
+        <v>-50.96437599356107</v>
       </c>
       <c r="J9">
-        <v>27232</v>
+        <v>27641</v>
       </c>
       <c r="K9">
-        <v>1155</v>
+        <v>1177</v>
       </c>
       <c r="L9">
-        <v>28387</v>
+        <v>28818</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -713,37 +713,37 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2788505.39</v>
+        <v>2815608.16</v>
       </c>
       <c r="C9">
-        <v>434231.99</v>
+        <v>436776.99</v>
       </c>
       <c r="D9">
-        <v>3222737.38</v>
+        <v>3252385.15</v>
       </c>
       <c r="E9">
-        <v>13.47401102847543</v>
+        <v>13.42943624004678</v>
       </c>
       <c r="F9">
-        <v>86.52598897152458</v>
+        <v>86.57056375995322</v>
       </c>
       <c r="G9">
-        <v>-58.03364334702056</v>
+        <v>-57.78768178697559</v>
       </c>
       <c r="H9">
-        <v>-49.6434470392154</v>
+        <v>-49.15400847553775</v>
       </c>
       <c r="I9">
-        <v>-50.96437599356107</v>
+        <v>-50.51326976586423</v>
       </c>
       <c r="J9">
-        <v>27641</v>
+        <v>27908</v>
       </c>
       <c r="K9">
-        <v>1177</v>
+        <v>1186</v>
       </c>
       <c r="L9">
-        <v>28818</v>
+        <v>29094</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -14,33 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Ano</t>
   </si>
   <si>
-    <t>Produtos</t>
-  </si>
-  <si>
-    <t>Serviços</t>
+    <t>Faturamento em Produtos</t>
+  </si>
+  <si>
+    <t>Faturamento em Serviços</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Serviços (%)</t>
-  </si>
-  <si>
-    <t>Produtos (%)</t>
-  </si>
-  <si>
-    <t>Evolução Serviços (%)</t>
-  </si>
-  <si>
-    <t>Evolução Produtos (%)</t>
-  </si>
-  <si>
-    <t>Evolução Total (%)</t>
+    <t>Faturamento em Serviços (%)</t>
+  </si>
+  <si>
+    <t>Faturamento em Produtos (%)</t>
+  </si>
+  <si>
+    <t>Evolução Faturamento em Serviços (%)</t>
+  </si>
+  <si>
+    <t>Evolução Faturamento em Produtos (%)</t>
   </si>
   <si>
     <t>Qtd Produtos</t>
@@ -50,6 +47,15 @@
   </si>
   <si>
     <t>Total Itens</t>
+  </si>
+  <si>
+    <t>Qtd Vendas</t>
+  </si>
+  <si>
+    <t>Ticket Médio Anual</t>
+  </si>
+  <si>
+    <t>Evolução Ticket Médio (%)</t>
   </si>
 </sst>
 </file>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +456,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -470,17 +482,23 @@
       <c r="F2">
         <v>60.25613178449481</v>
       </c>
+      <c r="I2">
+        <v>1427</v>
+      </c>
       <c r="J2">
-        <v>1427</v>
+        <v>1322</v>
       </c>
       <c r="K2">
-        <v>1322</v>
+        <v>2749</v>
       </c>
       <c r="L2">
-        <v>2749</v>
+        <v>2303</v>
+      </c>
+      <c r="M2">
+        <v>249.8849326964828</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -506,19 +524,25 @@
         <v>188.5085403659539</v>
       </c>
       <c r="I3">
-        <v>182.2405796849614</v>
+        <v>17636</v>
       </c>
       <c r="J3">
-        <v>17636</v>
+        <v>3034</v>
       </c>
       <c r="K3">
-        <v>3034</v>
+        <v>20670</v>
       </c>
       <c r="L3">
-        <v>20670</v>
+        <v>13607</v>
+      </c>
+      <c r="M3">
+        <v>119.3688689645036</v>
+      </c>
+      <c r="N3">
+        <v>-52.23046556812919</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -544,19 +568,25 @@
         <v>74.24376276579829</v>
       </c>
       <c r="I4">
-        <v>74.45682819453776</v>
+        <v>34974</v>
       </c>
       <c r="J4">
-        <v>34974</v>
+        <v>3932</v>
       </c>
       <c r="K4">
-        <v>3932</v>
+        <v>38906</v>
       </c>
       <c r="L4">
-        <v>38906</v>
+        <v>24419</v>
+      </c>
+      <c r="M4">
+        <v>116.0415606699701</v>
+      </c>
+      <c r="N4">
+        <v>-2.787417124244429</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -582,19 +612,25 @@
         <v>113.3930108151206</v>
       </c>
       <c r="I5">
-        <v>73.44015075676002</v>
+        <v>50119</v>
       </c>
       <c r="J5">
-        <v>50119</v>
+        <v>3672</v>
       </c>
       <c r="K5">
-        <v>3672</v>
+        <v>53791</v>
       </c>
       <c r="L5">
-        <v>53791</v>
+        <v>33150</v>
+      </c>
+      <c r="M5">
+        <v>148.2543843137255</v>
+      </c>
+      <c r="N5">
+        <v>27.75972975352408</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -620,19 +656,25 @@
         <v>4.229072149754054</v>
       </c>
       <c r="I6">
-        <v>5.846068045237751</v>
+        <v>57665</v>
       </c>
       <c r="J6">
-        <v>57665</v>
+        <v>3867</v>
       </c>
       <c r="K6">
-        <v>3867</v>
+        <v>61532</v>
       </c>
       <c r="L6">
-        <v>61532</v>
+        <v>38648</v>
+      </c>
+      <c r="M6">
+        <v>134.5980547505692</v>
+      </c>
+      <c r="N6">
+        <v>-9.211417002183008</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -658,19 +700,25 @@
         <v>-12.96961002544784</v>
       </c>
       <c r="I7">
-        <v>-12.40874928638721</v>
+        <v>57771</v>
       </c>
       <c r="J7">
-        <v>57771</v>
+        <v>3793</v>
       </c>
       <c r="K7">
-        <v>3793</v>
+        <v>61564</v>
       </c>
       <c r="L7">
-        <v>61564</v>
+        <v>38317</v>
+      </c>
+      <c r="M7">
+        <v>118.9145608998617</v>
+      </c>
+      <c r="N7">
+        <v>-11.65209547773294</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -696,19 +744,25 @@
         <v>64.10595135273212</v>
       </c>
       <c r="I8">
-        <v>44.24031912235311</v>
+        <v>64032</v>
       </c>
       <c r="J8">
-        <v>64032</v>
+        <v>3217</v>
       </c>
       <c r="K8">
-        <v>3217</v>
+        <v>67249</v>
       </c>
       <c r="L8">
-        <v>67249</v>
+        <v>44870</v>
+      </c>
+      <c r="M8">
+        <v>146.472852908402</v>
+      </c>
+      <c r="N8">
+        <v>23.174867568781</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -734,16 +788,22 @@
         <v>-49.15400847553775</v>
       </c>
       <c r="I9">
-        <v>-50.51326976586423</v>
+        <v>27908</v>
       </c>
       <c r="J9">
-        <v>27908</v>
+        <v>1186</v>
       </c>
       <c r="K9">
-        <v>1186</v>
+        <v>29094</v>
       </c>
       <c r="L9">
-        <v>29094</v>
+        <v>20054</v>
+      </c>
+      <c r="M9">
+        <v>162.1813678069213</v>
+      </c>
+      <c r="N9">
+        <v>10.724523068</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2815608.16</v>
+        <v>2831438.47</v>
       </c>
       <c r="C9">
-        <v>436776.99</v>
+        <v>445261.99</v>
       </c>
       <c r="D9">
-        <v>3252385.15</v>
+        <v>3276700.46</v>
       </c>
       <c r="E9">
-        <v>13.42943624004678</v>
+        <v>13.5887303534605</v>
       </c>
       <c r="F9">
-        <v>86.57056375995322</v>
+        <v>86.41126964653949</v>
       </c>
       <c r="G9">
-        <v>-57.78768178697559</v>
+        <v>-56.96764884513605</v>
       </c>
       <c r="H9">
-        <v>-49.15400847553775</v>
+        <v>-48.86813495821934</v>
       </c>
       <c r="I9">
-        <v>27908</v>
+        <v>28076</v>
       </c>
       <c r="J9">
-        <v>1186</v>
+        <v>1199</v>
       </c>
       <c r="K9">
-        <v>29094</v>
+        <v>29275</v>
       </c>
       <c r="L9">
-        <v>20054</v>
+        <v>20177</v>
       </c>
       <c r="M9">
-        <v>162.1813678069213</v>
+        <v>162.3978024483323</v>
       </c>
       <c r="N9">
-        <v>10.724523068</v>
+        <v>10.87228740597346</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2831438.47</v>
+        <v>2849787.1</v>
       </c>
       <c r="C9">
-        <v>445261.99</v>
+        <v>448651.99</v>
       </c>
       <c r="D9">
-        <v>3276700.46</v>
+        <v>3298439.09</v>
       </c>
       <c r="E9">
-        <v>13.5887303534605</v>
+        <v>13.60194861139606</v>
       </c>
       <c r="F9">
-        <v>86.41126964653949</v>
+        <v>86.39805138860395</v>
       </c>
       <c r="G9">
-        <v>-56.96764884513605</v>
+        <v>-56.64002224845532</v>
       </c>
       <c r="H9">
-        <v>-48.86813495821934</v>
+        <v>-48.53678406262261</v>
       </c>
       <c r="I9">
-        <v>28076</v>
+        <v>28289</v>
       </c>
       <c r="J9">
-        <v>1199</v>
+        <v>1210</v>
       </c>
       <c r="K9">
-        <v>29275</v>
+        <v>29499</v>
       </c>
       <c r="L9">
-        <v>20177</v>
+        <v>20340</v>
       </c>
       <c r="M9">
-        <v>162.3978024483323</v>
+        <v>162.1651470009833</v>
       </c>
       <c r="N9">
-        <v>10.87228740597346</v>
+        <v>10.7134487934051</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2849787.1</v>
+        <v>2866725.75</v>
       </c>
       <c r="C9">
-        <v>448651.99</v>
+        <v>451971.99</v>
       </c>
       <c r="D9">
-        <v>3298439.09</v>
+        <v>3318697.74</v>
       </c>
       <c r="E9">
-        <v>13.60194861139606</v>
+        <v>13.61895615115584</v>
       </c>
       <c r="F9">
-        <v>86.39805138860395</v>
+        <v>86.38104384884416</v>
       </c>
       <c r="G9">
-        <v>-56.64002224845532</v>
+        <v>-56.31916080273851</v>
       </c>
       <c r="H9">
-        <v>-48.53678406262261</v>
+        <v>-48.23089545689565</v>
       </c>
       <c r="I9">
-        <v>28289</v>
+        <v>28500</v>
       </c>
       <c r="J9">
-        <v>1210</v>
+        <v>1220</v>
       </c>
       <c r="K9">
-        <v>29499</v>
+        <v>29720</v>
       </c>
       <c r="L9">
-        <v>20340</v>
+        <v>20504</v>
       </c>
       <c r="M9">
-        <v>162.1651470009833</v>
+        <v>161.85611295357</v>
       </c>
       <c r="N9">
-        <v>10.7134487934051</v>
+        <v>10.50246495491423</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2866725.75</v>
+        <v>2907348.78</v>
       </c>
       <c r="C9">
-        <v>451971.99</v>
+        <v>461726.99</v>
       </c>
       <c r="D9">
-        <v>3318697.74</v>
+        <v>3369075.77</v>
       </c>
       <c r="E9">
-        <v>13.61895615115584</v>
+        <v>13.70485621342972</v>
       </c>
       <c r="F9">
-        <v>86.38104384884416</v>
+        <v>86.29514378657029</v>
       </c>
       <c r="G9">
-        <v>-56.31916080273851</v>
+        <v>-55.37638869341093</v>
       </c>
       <c r="H9">
-        <v>-48.23089545689565</v>
+        <v>-47.49729968585699</v>
       </c>
       <c r="I9">
-        <v>28500</v>
+        <v>29020</v>
       </c>
       <c r="J9">
-        <v>1220</v>
+        <v>1244</v>
       </c>
       <c r="K9">
-        <v>29720</v>
+        <v>30264</v>
       </c>
       <c r="L9">
-        <v>20504</v>
+        <v>20860</v>
       </c>
       <c r="M9">
-        <v>161.85611295357</v>
+        <v>161.5089055608821</v>
       </c>
       <c r="N9">
-        <v>10.50246495491423</v>
+        <v>10.26541939609993</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2907348.78</v>
+        <v>2932227.58</v>
       </c>
       <c r="C9">
-        <v>461726.99</v>
+        <v>466376.99</v>
       </c>
       <c r="D9">
-        <v>3369075.77</v>
+        <v>3398604.57</v>
       </c>
       <c r="E9">
-        <v>13.70485621342972</v>
+        <v>13.72260233263913</v>
       </c>
       <c r="F9">
-        <v>86.29514378657029</v>
+        <v>86.27739766736087</v>
       </c>
       <c r="G9">
-        <v>-55.37638869341093</v>
+        <v>-54.92698937937983</v>
       </c>
       <c r="H9">
-        <v>-47.49729968585699</v>
+        <v>-47.0480229463199</v>
       </c>
       <c r="I9">
-        <v>29020</v>
+        <v>29324</v>
       </c>
       <c r="J9">
-        <v>1244</v>
+        <v>1253</v>
       </c>
       <c r="K9">
-        <v>30264</v>
+        <v>30577</v>
       </c>
       <c r="L9">
-        <v>20860</v>
+        <v>21094</v>
       </c>
       <c r="M9">
-        <v>161.5089055608821</v>
+        <v>161.1171219304068</v>
       </c>
       <c r="N9">
-        <v>10.26541939609993</v>
+        <v>9.997940731831466</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2932227.58</v>
+        <v>2955685.33</v>
       </c>
       <c r="C9">
-        <v>466376.99</v>
+        <v>468266.99</v>
       </c>
       <c r="D9">
-        <v>3398604.57</v>
+        <v>3423952.32</v>
       </c>
       <c r="E9">
-        <v>13.72260233263913</v>
+        <v>13.67621234865794</v>
       </c>
       <c r="F9">
-        <v>86.27739766736087</v>
+        <v>86.32378765134206</v>
       </c>
       <c r="G9">
-        <v>-54.92698937937983</v>
+        <v>-54.7443303033543</v>
       </c>
       <c r="H9">
-        <v>-47.0480229463199</v>
+        <v>-46.62440840555122</v>
       </c>
       <c r="I9">
-        <v>29324</v>
+        <v>29532</v>
       </c>
       <c r="J9">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="K9">
-        <v>30577</v>
+        <v>30793</v>
       </c>
       <c r="L9">
-        <v>21094</v>
+        <v>21246</v>
       </c>
       <c r="M9">
-        <v>161.1171219304068</v>
+        <v>161.1575035300763</v>
       </c>
       <c r="N9">
-        <v>9.997940731831466</v>
+        <v>10.02551007240733</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2955685.33</v>
+        <v>2986686.79</v>
       </c>
       <c r="C9">
-        <v>468266.99</v>
+        <v>473056.99</v>
       </c>
       <c r="D9">
-        <v>3423952.32</v>
+        <v>3459743.78</v>
       </c>
       <c r="E9">
-        <v>13.67621234865794</v>
+        <v>13.67317986767216</v>
       </c>
       <c r="F9">
-        <v>86.32378765134206</v>
+        <v>86.32682013232782</v>
       </c>
       <c r="G9">
-        <v>-54.7443303033543</v>
+        <v>-54.2814006873954</v>
       </c>
       <c r="H9">
-        <v>-46.62440840555122</v>
+        <v>-46.06456488939734</v>
       </c>
       <c r="I9">
-        <v>29532</v>
+        <v>29724</v>
       </c>
       <c r="J9">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="K9">
-        <v>30793</v>
+        <v>30997</v>
       </c>
       <c r="L9">
-        <v>21246</v>
+        <v>21393</v>
       </c>
       <c r="M9">
-        <v>161.1575035300763</v>
+        <v>161.7231701958585</v>
       </c>
       <c r="N9">
-        <v>10.02551007240733</v>
+        <v>10.41170222648242</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2986686.79</v>
+        <v>3004949.14</v>
       </c>
       <c r="C9">
-        <v>473056.99</v>
+        <v>477251.99</v>
       </c>
       <c r="D9">
-        <v>3459743.78</v>
+        <v>3482201.13</v>
       </c>
       <c r="E9">
-        <v>13.67317986767216</v>
+        <v>13.70546881650113</v>
       </c>
       <c r="F9">
-        <v>86.32682013232782</v>
+        <v>86.29453118349888</v>
       </c>
       <c r="G9">
-        <v>-54.2814006873954</v>
+        <v>-53.87597485462972</v>
       </c>
       <c r="H9">
-        <v>-46.06456488939734</v>
+        <v>-45.73477209134096</v>
       </c>
       <c r="I9">
-        <v>29724</v>
+        <v>29911</v>
       </c>
       <c r="J9">
-        <v>1273</v>
+        <v>1283</v>
       </c>
       <c r="K9">
-        <v>30997</v>
+        <v>31194</v>
       </c>
       <c r="L9">
-        <v>21393</v>
+        <v>21531</v>
       </c>
       <c r="M9">
-        <v>161.7231701958585</v>
+        <v>161.7296516650411</v>
       </c>
       <c r="N9">
-        <v>10.41170222648242</v>
+        <v>10.41612725750623</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3004949.14</v>
+        <v>3035330.95</v>
       </c>
       <c r="C9">
-        <v>477251.99</v>
+        <v>481606.99</v>
       </c>
       <c r="D9">
-        <v>3482201.13</v>
+        <v>3516937.94</v>
       </c>
       <c r="E9">
-        <v>13.70546881650113</v>
+        <v>13.69392915702118</v>
       </c>
       <c r="F9">
-        <v>86.29453118349888</v>
+        <v>86.30607084297883</v>
       </c>
       <c r="G9">
-        <v>-53.87597485462972</v>
+        <v>-53.45508581966081</v>
       </c>
       <c r="H9">
-        <v>-45.73477209134096</v>
+        <v>-45.1861185976823</v>
       </c>
       <c r="I9">
-        <v>29911</v>
+        <v>30379</v>
       </c>
       <c r="J9">
-        <v>1283</v>
+        <v>1296</v>
       </c>
       <c r="K9">
-        <v>31194</v>
+        <v>31675</v>
       </c>
       <c r="L9">
-        <v>21531</v>
+        <v>21831</v>
       </c>
       <c r="M9">
-        <v>161.7296516650411</v>
+        <v>161.0983436397783</v>
       </c>
       <c r="N9">
-        <v>10.41612725750623</v>
+        <v>9.985120410348269</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3035330.95</v>
+        <v>3039907.85</v>
       </c>
       <c r="C9">
-        <v>481606.99</v>
+        <v>482006.99</v>
       </c>
       <c r="D9">
-        <v>3516937.94</v>
+        <v>3521914.84</v>
       </c>
       <c r="E9">
-        <v>13.69392915702118</v>
+        <v>13.68593540438928</v>
       </c>
       <c r="F9">
-        <v>86.30607084297883</v>
+        <v>86.31406459561073</v>
       </c>
       <c r="G9">
-        <v>-53.45508581966081</v>
+        <v>-53.41642781415277</v>
       </c>
       <c r="H9">
-        <v>-45.1861185976823</v>
+        <v>-45.1034661100548</v>
       </c>
       <c r="I9">
-        <v>30379</v>
+        <v>30464</v>
       </c>
       <c r="J9">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="K9">
-        <v>31675</v>
+        <v>31761</v>
       </c>
       <c r="L9">
-        <v>21831</v>
+        <v>21892</v>
       </c>
       <c r="M9">
-        <v>161.0983436397783</v>
+        <v>160.8767970034716</v>
       </c>
       <c r="N9">
-        <v>9.985120410348269</v>
+        <v>9.833866009339731</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3039907.85</v>
+        <v>3061092.22</v>
       </c>
       <c r="C9">
-        <v>482006.99</v>
+        <v>484816.99</v>
       </c>
       <c r="D9">
-        <v>3521914.84</v>
+        <v>3545909.21</v>
       </c>
       <c r="E9">
-        <v>13.68593540438928</v>
+        <v>13.67257200586927</v>
       </c>
       <c r="F9">
-        <v>86.31406459561073</v>
+        <v>86.32742799413074</v>
       </c>
       <c r="G9">
-        <v>-53.41642781415277</v>
+        <v>-53.14485532545871</v>
       </c>
       <c r="H9">
-        <v>-45.1034661100548</v>
+        <v>-44.72090566973021</v>
       </c>
       <c r="I9">
-        <v>30464</v>
+        <v>30720</v>
       </c>
       <c r="J9">
-        <v>1297</v>
+        <v>1306</v>
       </c>
       <c r="K9">
-        <v>31761</v>
+        <v>32026</v>
       </c>
       <c r="L9">
-        <v>21892</v>
+        <v>22087</v>
       </c>
       <c r="M9">
-        <v>160.8767970034716</v>
+        <v>160.5428174944537</v>
       </c>
       <c r="N9">
-        <v>9.833866009339731</v>
+        <v>9.605851396128994</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3061092.22</v>
+        <v>3091295.22</v>
       </c>
       <c r="C9">
-        <v>484816.99</v>
+        <v>485916.99</v>
       </c>
       <c r="D9">
-        <v>3545909.21</v>
+        <v>3577212.21</v>
       </c>
       <c r="E9">
-        <v>13.67257200586927</v>
+        <v>13.58367805638235</v>
       </c>
       <c r="F9">
-        <v>86.32742799413074</v>
+        <v>86.41632194361766</v>
       </c>
       <c r="G9">
-        <v>-53.14485532545871</v>
+        <v>-53.03854581031157</v>
       </c>
       <c r="H9">
-        <v>-44.72090566973021</v>
+        <v>-44.1754812375133</v>
       </c>
       <c r="I9">
-        <v>30720</v>
+        <v>30949</v>
       </c>
       <c r="J9">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="K9">
-        <v>32026</v>
+        <v>32261</v>
       </c>
       <c r="L9">
-        <v>22087</v>
+        <v>22260</v>
       </c>
       <c r="M9">
-        <v>160.5428174944537</v>
+        <v>160.7013571428571</v>
       </c>
       <c r="N9">
-        <v>9.605851396128994</v>
+        <v>9.714089643186652</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3091295.22</v>
+        <v>3120081.25</v>
       </c>
       <c r="C9">
-        <v>485916.99</v>
+        <v>490391.99</v>
       </c>
       <c r="D9">
-        <v>3577212.21</v>
+        <v>3610473.24</v>
       </c>
       <c r="E9">
-        <v>13.58367805638235</v>
+        <v>13.58248510380872</v>
       </c>
       <c r="F9">
-        <v>86.41632194361766</v>
+        <v>86.41751489619128</v>
       </c>
       <c r="G9">
-        <v>-53.03854581031157</v>
+        <v>-52.60605937369025</v>
       </c>
       <c r="H9">
-        <v>-44.1754812375133</v>
+        <v>-43.65564532490431</v>
       </c>
       <c r="I9">
-        <v>30949</v>
+        <v>31188</v>
       </c>
       <c r="J9">
-        <v>1312</v>
+        <v>1324</v>
       </c>
       <c r="K9">
-        <v>32261</v>
+        <v>32512</v>
       </c>
       <c r="L9">
-        <v>22260</v>
+        <v>22443</v>
       </c>
       <c r="M9">
-        <v>160.7013571428571</v>
+        <v>160.8730223232188</v>
       </c>
       <c r="N9">
-        <v>9.714089643186652</v>
+        <v>9.831288958249518</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3120081.25</v>
+        <v>3154975.38</v>
       </c>
       <c r="C9">
-        <v>490391.99</v>
+        <v>494771.99</v>
       </c>
       <c r="D9">
-        <v>3610473.24</v>
+        <v>3649747.37</v>
       </c>
       <c r="E9">
-        <v>13.58248510380872</v>
+        <v>13.5563352704053</v>
       </c>
       <c r="F9">
-        <v>86.41751489619128</v>
+        <v>86.44366472959469</v>
       </c>
       <c r="G9">
-        <v>-52.60605937369025</v>
+        <v>-52.1827542133771</v>
       </c>
       <c r="H9">
-        <v>-43.65564532490431</v>
+        <v>-43.02550556915311</v>
       </c>
       <c r="I9">
-        <v>31188</v>
+        <v>31392</v>
       </c>
       <c r="J9">
-        <v>1324</v>
+        <v>1333</v>
       </c>
       <c r="K9">
-        <v>32512</v>
+        <v>32725</v>
       </c>
       <c r="L9">
-        <v>22443</v>
+        <v>22608</v>
       </c>
       <c r="M9">
-        <v>160.8730223232188</v>
+        <v>161.4361009377212</v>
       </c>
       <c r="N9">
-        <v>9.831288958249518</v>
+        <v>10.21571419700311</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3154975.38</v>
+        <v>3176766.57</v>
       </c>
       <c r="C9">
-        <v>494771.99</v>
+        <v>495271.99</v>
       </c>
       <c r="D9">
-        <v>3649747.37</v>
+        <v>3672038.56</v>
       </c>
       <c r="E9">
-        <v>13.5563352704053</v>
+        <v>13.48765765684117</v>
       </c>
       <c r="F9">
-        <v>86.44366472959469</v>
+        <v>86.51234234315885</v>
       </c>
       <c r="G9">
-        <v>-52.1827542133771</v>
+        <v>-52.13443170649204</v>
       </c>
       <c r="H9">
-        <v>-43.02550556915311</v>
+        <v>-42.63198679839918</v>
       </c>
       <c r="I9">
-        <v>31392</v>
+        <v>31621</v>
       </c>
       <c r="J9">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="K9">
-        <v>32725</v>
+        <v>32957</v>
       </c>
       <c r="L9">
-        <v>22608</v>
+        <v>22764</v>
       </c>
       <c r="M9">
-        <v>161.4361009377212</v>
+        <v>161.3090212616412</v>
       </c>
       <c r="N9">
-        <v>10.21571419700311</v>
+        <v>10.12895431381884</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3176766.57</v>
+        <v>3205326.97</v>
       </c>
       <c r="C9">
-        <v>495271.99</v>
+        <v>499536.99</v>
       </c>
       <c r="D9">
-        <v>3672038.56</v>
+        <v>3704863.96</v>
       </c>
       <c r="E9">
-        <v>13.48765765684117</v>
+        <v>13.48327483527897</v>
       </c>
       <c r="F9">
-        <v>86.51234234315885</v>
+        <v>86.51672516472104</v>
       </c>
       <c r="G9">
-        <v>-52.13443170649204</v>
+        <v>-51.72224072276244</v>
       </c>
       <c r="H9">
-        <v>-42.63198679839918</v>
+        <v>-42.11622545171546</v>
       </c>
       <c r="I9">
-        <v>31621</v>
+        <v>31955</v>
       </c>
       <c r="J9">
-        <v>1336</v>
+        <v>1351</v>
       </c>
       <c r="K9">
-        <v>32957</v>
+        <v>33306</v>
       </c>
       <c r="L9">
-        <v>22764</v>
+        <v>22980</v>
       </c>
       <c r="M9">
-        <v>161.3090212616412</v>
+        <v>161.2212341166232</v>
       </c>
       <c r="N9">
-        <v>10.12895431381884</v>
+        <v>10.06902024189023</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3205326.97</v>
+        <v>3231969.27</v>
       </c>
       <c r="C9">
-        <v>499536.99</v>
+        <v>501581.99</v>
       </c>
       <c r="D9">
-        <v>3704863.96</v>
+        <v>3733551.26</v>
       </c>
       <c r="E9">
-        <v>13.48327483527897</v>
+        <v>13.43444766310775</v>
       </c>
       <c r="F9">
-        <v>86.51672516472104</v>
+        <v>86.56555233689225</v>
       </c>
       <c r="G9">
-        <v>-51.72224072276244</v>
+        <v>-51.52460166960253</v>
       </c>
       <c r="H9">
-        <v>-42.11622545171546</v>
+        <v>-41.63510233975794</v>
       </c>
       <c r="I9">
-        <v>31955</v>
+        <v>32196</v>
       </c>
       <c r="J9">
-        <v>1351</v>
+        <v>1359</v>
       </c>
       <c r="K9">
-        <v>33306</v>
+        <v>33555</v>
       </c>
       <c r="L9">
-        <v>22980</v>
+        <v>23164</v>
       </c>
       <c r="M9">
-        <v>161.2212341166232</v>
+        <v>161.1790390260749</v>
       </c>
       <c r="N9">
-        <v>10.06902024189023</v>
+        <v>10.04021279415479</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3231969.27</v>
+        <v>3247845.06</v>
       </c>
       <c r="C9">
-        <v>501581.99</v>
+        <v>503941.99</v>
       </c>
       <c r="D9">
-        <v>3733551.26</v>
+        <v>3751787.05</v>
       </c>
       <c r="E9">
-        <v>13.43444766310775</v>
+        <v>13.43205206702763</v>
       </c>
       <c r="F9">
-        <v>86.56555233689225</v>
+        <v>86.56794793297237</v>
       </c>
       <c r="G9">
-        <v>-51.52460166960253</v>
+        <v>-51.29651943710504</v>
       </c>
       <c r="H9">
-        <v>-41.63510233975794</v>
+        <v>-41.34840751650379</v>
       </c>
       <c r="I9">
-        <v>32196</v>
+        <v>32408</v>
       </c>
       <c r="J9">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="K9">
-        <v>33555</v>
+        <v>33774</v>
       </c>
       <c r="L9">
-        <v>23164</v>
+        <v>23325</v>
       </c>
       <c r="M9">
-        <v>161.1790390260749</v>
+        <v>160.8483193997856</v>
       </c>
       <c r="N9">
-        <v>10.04021279415479</v>
+        <v>9.814423769279212</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3247845.06</v>
+        <v>3287213.1</v>
       </c>
       <c r="C9">
-        <v>503941.99</v>
+        <v>509121.99</v>
       </c>
       <c r="D9">
-        <v>3751787.05</v>
+        <v>3796335.09</v>
       </c>
       <c r="E9">
-        <v>13.43205206702763</v>
+        <v>13.41088122966511</v>
       </c>
       <c r="F9">
-        <v>86.56794793297237</v>
+        <v>86.58911877033489</v>
       </c>
       <c r="G9">
-        <v>-51.29651943710504</v>
+        <v>-50.79589826577578</v>
       </c>
       <c r="H9">
-        <v>-41.34840751650379</v>
+        <v>-40.63747513016823</v>
       </c>
       <c r="I9">
-        <v>32408</v>
+        <v>32796</v>
       </c>
       <c r="J9">
-        <v>1366</v>
+        <v>1379</v>
       </c>
       <c r="K9">
-        <v>33774</v>
+        <v>34175</v>
       </c>
       <c r="L9">
-        <v>23325</v>
+        <v>23606</v>
       </c>
       <c r="M9">
-        <v>160.8483193997856</v>
+        <v>160.8207697195628</v>
       </c>
       <c r="N9">
-        <v>9.814423769279212</v>
+        <v>9.795615041466643</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3287213.1</v>
+        <v>3317384.86</v>
       </c>
       <c r="C9">
-        <v>509121.99</v>
+        <v>514326.99</v>
       </c>
       <c r="D9">
-        <v>3796335.09</v>
+        <v>3831711.85</v>
       </c>
       <c r="E9">
-        <v>13.41088122966511</v>
+        <v>13.42290365597298</v>
       </c>
       <c r="F9">
-        <v>86.58911877033489</v>
+        <v>86.57709634402703</v>
       </c>
       <c r="G9">
-        <v>-50.79589826577578</v>
+        <v>-50.29286096910227</v>
       </c>
       <c r="H9">
-        <v>-40.63747513016823</v>
+        <v>-40.09261484917015</v>
       </c>
       <c r="I9">
-        <v>32796</v>
+        <v>33284</v>
       </c>
       <c r="J9">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="K9">
-        <v>34175</v>
+        <v>34683</v>
       </c>
       <c r="L9">
-        <v>23606</v>
+        <v>23936</v>
       </c>
       <c r="M9">
-        <v>160.8207697195628</v>
+        <v>160.0815445354278</v>
       </c>
       <c r="N9">
-        <v>9.795615041466643</v>
+        <v>9.290930951919151</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3317384.86</v>
+        <v>3339918.82</v>
       </c>
       <c r="C9">
-        <v>514326.99</v>
+        <v>517081.99</v>
       </c>
       <c r="D9">
-        <v>3831711.85</v>
+        <v>3857000.81</v>
       </c>
       <c r="E9">
-        <v>13.42290365597298</v>
+        <v>13.40632308552717</v>
       </c>
       <c r="F9">
-        <v>86.57709634402703</v>
+        <v>86.59367691447282</v>
       </c>
       <c r="G9">
-        <v>-50.29286096910227</v>
+        <v>-50.02660395616557</v>
       </c>
       <c r="H9">
-        <v>-40.09261484917015</v>
+        <v>-39.68568267890233</v>
       </c>
       <c r="I9">
-        <v>33284</v>
+        <v>33505</v>
       </c>
       <c r="J9">
-        <v>1399</v>
+        <v>1410</v>
       </c>
       <c r="K9">
-        <v>34683</v>
+        <v>34915</v>
       </c>
       <c r="L9">
-        <v>23936</v>
+        <v>24101</v>
       </c>
       <c r="M9">
-        <v>160.0815445354278</v>
+        <v>160.0348869341521</v>
       </c>
       <c r="N9">
-        <v>9.290930951919151</v>
+        <v>9.259076857218851</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3339918.82</v>
+        <v>3356766.64</v>
       </c>
       <c r="C9">
-        <v>517081.99</v>
+        <v>522931.99</v>
       </c>
       <c r="D9">
-        <v>3857000.81</v>
+        <v>3879698.63</v>
       </c>
       <c r="E9">
-        <v>13.40632308552717</v>
+        <v>13.47867553310449</v>
       </c>
       <c r="F9">
-        <v>86.59367691447282</v>
+        <v>86.52132446689552</v>
       </c>
       <c r="G9">
-        <v>-50.02660395616557</v>
+        <v>-49.46123062561033</v>
       </c>
       <c r="H9">
-        <v>-39.68568267890233</v>
+        <v>-39.38143433742655</v>
       </c>
       <c r="I9">
-        <v>33505</v>
+        <v>33701</v>
       </c>
       <c r="J9">
-        <v>1410</v>
+        <v>1419</v>
       </c>
       <c r="K9">
-        <v>34915</v>
+        <v>35120</v>
       </c>
       <c r="L9">
-        <v>24101</v>
+        <v>24250</v>
       </c>
       <c r="M9">
-        <v>160.0348869341521</v>
+        <v>159.987572371134</v>
       </c>
       <c r="N9">
-        <v>9.259076857218851</v>
+        <v>9.226774241356184</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3356766.64</v>
+        <v>3374033.25</v>
       </c>
       <c r="C9">
-        <v>522931.99</v>
+        <v>526156.99</v>
       </c>
       <c r="D9">
-        <v>3879698.63</v>
+        <v>3900190.24</v>
       </c>
       <c r="E9">
-        <v>13.47867553310449</v>
+        <v>13.49054680983972</v>
       </c>
       <c r="F9">
-        <v>86.52132446689552</v>
+        <v>86.50945319016029</v>
       </c>
       <c r="G9">
-        <v>-49.46123062561033</v>
+        <v>-49.14955045620167</v>
       </c>
       <c r="H9">
-        <v>-39.38143433742655</v>
+        <v>-39.0696232274189</v>
       </c>
       <c r="I9">
-        <v>33701</v>
+        <v>33907</v>
       </c>
       <c r="J9">
-        <v>1419</v>
+        <v>1430</v>
       </c>
       <c r="K9">
-        <v>35120</v>
+        <v>35337</v>
       </c>
       <c r="L9">
-        <v>24250</v>
+        <v>24385</v>
       </c>
       <c r="M9">
-        <v>159.987572371134</v>
+        <v>159.9421874102932</v>
       </c>
       <c r="N9">
-        <v>9.226774241356184</v>
+        <v>9.195789004201572</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3374033.25</v>
+        <v>3406867.06</v>
       </c>
       <c r="C9">
-        <v>526156.99</v>
+        <v>532306.99</v>
       </c>
       <c r="D9">
-        <v>3900190.24</v>
+        <v>3939174.05</v>
       </c>
       <c r="E9">
-        <v>13.49054680983972</v>
+        <v>13.51316248643545</v>
       </c>
       <c r="F9">
-        <v>86.50945319016029</v>
+        <v>86.48683751356455</v>
       </c>
       <c r="G9">
-        <v>-49.14955045620167</v>
+        <v>-48.5551836215154</v>
       </c>
       <c r="H9">
-        <v>-39.0696232274189</v>
+        <v>-38.47669000301178</v>
       </c>
       <c r="I9">
-        <v>33907</v>
+        <v>34115</v>
       </c>
       <c r="J9">
-        <v>1430</v>
+        <v>1445</v>
       </c>
       <c r="K9">
-        <v>35337</v>
+        <v>35560</v>
       </c>
       <c r="L9">
-        <v>24385</v>
+        <v>24537</v>
       </c>
       <c r="M9">
-        <v>159.9421874102932</v>
+        <v>160.5401658719485</v>
       </c>
       <c r="N9">
-        <v>9.195789004201572</v>
+        <v>9.604041079437131</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3406867.06</v>
+        <v>3442397.08</v>
       </c>
       <c r="C9">
-        <v>532306.99</v>
+        <v>537276.99</v>
       </c>
       <c r="D9">
-        <v>3939174.05</v>
+        <v>3979674.07</v>
       </c>
       <c r="E9">
-        <v>13.51316248643545</v>
+        <v>13.50052744394718</v>
       </c>
       <c r="F9">
-        <v>86.48683751356455</v>
+        <v>86.49947255605281</v>
       </c>
       <c r="G9">
-        <v>-48.5551836215154</v>
+        <v>-48.07485790307787</v>
       </c>
       <c r="H9">
-        <v>-38.47669000301178</v>
+        <v>-37.83506695281292</v>
       </c>
       <c r="I9">
-        <v>34115</v>
+        <v>34494</v>
       </c>
       <c r="J9">
-        <v>1445</v>
+        <v>1462</v>
       </c>
       <c r="K9">
-        <v>35560</v>
+        <v>35956</v>
       </c>
       <c r="L9">
-        <v>24537</v>
+        <v>24812</v>
       </c>
       <c r="M9">
-        <v>160.5401658719485</v>
+        <v>160.3931190552958</v>
       </c>
       <c r="N9">
-        <v>9.604041079437131</v>
+        <v>9.503649222698595</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3442397.08</v>
+        <v>3464198.2</v>
       </c>
       <c r="C9">
-        <v>537276.99</v>
+        <v>540091.99</v>
       </c>
       <c r="D9">
-        <v>3979674.07</v>
+        <v>4004290.19</v>
       </c>
       <c r="E9">
-        <v>13.50052744394718</v>
+        <v>13.48783340799783</v>
       </c>
       <c r="F9">
-        <v>86.49947255605281</v>
+        <v>86.51216659200216</v>
       </c>
       <c r="G9">
-        <v>-48.07485790307787</v>
+        <v>-47.80280218931496</v>
       </c>
       <c r="H9">
-        <v>-37.83506695281292</v>
+        <v>-37.44136885998463</v>
       </c>
       <c r="I9">
-        <v>34494</v>
+        <v>34676</v>
       </c>
       <c r="J9">
-        <v>1462</v>
+        <v>1468</v>
       </c>
       <c r="K9">
-        <v>35956</v>
+        <v>36144</v>
       </c>
       <c r="L9">
-        <v>24812</v>
+        <v>24955</v>
       </c>
       <c r="M9">
-        <v>160.3931190552958</v>
+        <v>160.4604363854939</v>
       </c>
       <c r="N9">
-        <v>9.503649222698595</v>
+        <v>9.549608135125954</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3464198.2</v>
+        <v>3479558.36</v>
       </c>
       <c r="C9">
-        <v>540091.99</v>
+        <v>542146.99</v>
       </c>
       <c r="D9">
-        <v>4004290.19</v>
+        <v>4021705.35</v>
       </c>
       <c r="E9">
-        <v>13.48783340799783</v>
+        <v>13.4805248723654</v>
       </c>
       <c r="F9">
-        <v>86.51216659200216</v>
+        <v>86.51947512763461</v>
       </c>
       <c r="G9">
-        <v>-47.80280218931496</v>
+        <v>-47.60419668601735</v>
       </c>
       <c r="H9">
-        <v>-37.44136885998463</v>
+        <v>-37.16398560180627</v>
       </c>
       <c r="I9">
-        <v>34676</v>
+        <v>34890</v>
       </c>
       <c r="J9">
-        <v>1468</v>
+        <v>1474</v>
       </c>
       <c r="K9">
-        <v>36144</v>
+        <v>36364</v>
       </c>
       <c r="L9">
-        <v>24955</v>
+        <v>25104</v>
       </c>
       <c r="M9">
-        <v>160.4604363854939</v>
+        <v>160.2017746175908</v>
       </c>
       <c r="N9">
-        <v>9.549608135125954</v>
+        <v>9.373014477825636</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3479558.36</v>
+        <v>3496450.76</v>
       </c>
       <c r="C9">
-        <v>542146.99</v>
+        <v>546385.24</v>
       </c>
       <c r="D9">
-        <v>4021705.35</v>
+        <v>4042836</v>
       </c>
       <c r="E9">
-        <v>13.4805248723654</v>
+        <v>13.51489993657917</v>
       </c>
       <c r="F9">
-        <v>86.51947512763461</v>
+        <v>86.48510006342082</v>
       </c>
       <c r="G9">
-        <v>-47.60419668601735</v>
+        <v>-47.19459095640611</v>
       </c>
       <c r="H9">
-        <v>-37.16398560180627</v>
+        <v>-36.85893220715074</v>
       </c>
       <c r="I9">
-        <v>34890</v>
+        <v>35092</v>
       </c>
       <c r="J9">
-        <v>1474</v>
+        <v>1490</v>
       </c>
       <c r="K9">
-        <v>36364</v>
+        <v>36582</v>
       </c>
       <c r="L9">
-        <v>25104</v>
+        <v>25250</v>
       </c>
       <c r="M9">
-        <v>160.2017746175908</v>
+        <v>160.1123168316832</v>
       </c>
       <c r="N9">
-        <v>9.373014477825636</v>
+        <v>9.311939825334491</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3496450.76</v>
+        <v>3516351.29</v>
       </c>
       <c r="C9">
-        <v>546385.24</v>
+        <v>550180.24</v>
       </c>
       <c r="D9">
-        <v>4042836</v>
+        <v>4066531.53</v>
       </c>
       <c r="E9">
-        <v>13.51489993657917</v>
+        <v>13.52947188386856</v>
       </c>
       <c r="F9">
-        <v>86.48510006342082</v>
+        <v>86.47052811613143</v>
       </c>
       <c r="G9">
-        <v>-47.19459095640611</v>
+        <v>-46.82782312914848</v>
       </c>
       <c r="H9">
-        <v>-36.85893220715074</v>
+        <v>-36.49955614265165</v>
       </c>
       <c r="I9">
-        <v>35092</v>
+        <v>35313</v>
       </c>
       <c r="J9">
-        <v>1490</v>
+        <v>1501</v>
       </c>
       <c r="K9">
-        <v>36582</v>
+        <v>36814</v>
       </c>
       <c r="L9">
-        <v>25250</v>
+        <v>25404</v>
       </c>
       <c r="M9">
-        <v>160.1123168316832</v>
+        <v>160.0744579593765</v>
       </c>
       <c r="N9">
-        <v>9.311939825334491</v>
+        <v>9.286092802111456</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3516351.29</v>
+        <v>3555633.88</v>
       </c>
       <c r="C9">
-        <v>550180.24</v>
+        <v>557560.24</v>
       </c>
       <c r="D9">
-        <v>4066531.53</v>
+        <v>4113194.12</v>
       </c>
       <c r="E9">
-        <v>13.52947188386856</v>
+        <v>13.55540788335076</v>
       </c>
       <c r="F9">
-        <v>86.47052811613143</v>
+        <v>86.44459211664923</v>
       </c>
       <c r="G9">
-        <v>-46.82782312914848</v>
+        <v>-46.11458292752495</v>
       </c>
       <c r="H9">
-        <v>-36.49955614265165</v>
+        <v>-35.79016686520371</v>
       </c>
       <c r="I9">
-        <v>35313</v>
+        <v>35761</v>
       </c>
       <c r="J9">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="K9">
-        <v>36814</v>
+        <v>37285</v>
       </c>
       <c r="L9">
-        <v>25404</v>
+        <v>25726</v>
       </c>
       <c r="M9">
-        <v>160.0744579593765</v>
+        <v>159.8847127419731</v>
       </c>
       <c r="N9">
-        <v>9.286092802111456</v>
+        <v>9.156549877510933</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3555633.88</v>
+        <v>3571715.55</v>
       </c>
       <c r="C9">
-        <v>557560.24</v>
+        <v>561545.24</v>
       </c>
       <c r="D9">
-        <v>4113194.12</v>
+        <v>4133260.79</v>
       </c>
       <c r="E9">
-        <v>13.55540788335076</v>
+        <v>13.58601038092252</v>
       </c>
       <c r="F9">
-        <v>86.44459211664923</v>
+        <v>86.41398961907748</v>
       </c>
       <c r="G9">
-        <v>-46.11458292752495</v>
+        <v>-45.72945254765099</v>
       </c>
       <c r="H9">
-        <v>-35.79016686520371</v>
+        <v>-35.49975413372506</v>
       </c>
       <c r="I9">
-        <v>35761</v>
+        <v>35958</v>
       </c>
       <c r="J9">
-        <v>1524</v>
+        <v>1536</v>
       </c>
       <c r="K9">
-        <v>37285</v>
+        <v>37494</v>
       </c>
       <c r="L9">
-        <v>25726</v>
+        <v>25887</v>
       </c>
       <c r="M9">
-        <v>159.8847127419731</v>
+        <v>159.6654996716499</v>
       </c>
       <c r="N9">
-        <v>9.156549877510933</v>
+        <v>9.006888649528744</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3571715.55</v>
+        <v>3588652.36</v>
       </c>
       <c r="C9">
-        <v>561545.24</v>
+        <v>564405.24</v>
       </c>
       <c r="D9">
-        <v>4133260.79</v>
+        <v>4153057.6</v>
       </c>
       <c r="E9">
-        <v>13.58601038092252</v>
+        <v>13.59011346242826</v>
       </c>
       <c r="F9">
-        <v>86.41398961907748</v>
+        <v>86.40988653757175</v>
       </c>
       <c r="G9">
-        <v>-45.72945254765099</v>
+        <v>-45.45304780826843</v>
       </c>
       <c r="H9">
-        <v>-35.49975413372506</v>
+        <v>-35.19389875585478</v>
       </c>
       <c r="I9">
-        <v>35958</v>
+        <v>36170</v>
       </c>
       <c r="J9">
-        <v>1536</v>
+        <v>1546</v>
       </c>
       <c r="K9">
-        <v>37494</v>
+        <v>37716</v>
       </c>
       <c r="L9">
-        <v>25887</v>
+        <v>26050</v>
       </c>
       <c r="M9">
-        <v>159.6654996716499</v>
+        <v>159.4263953934741</v>
       </c>
       <c r="N9">
-        <v>9.006888649528744</v>
+        <v>8.84364728880691</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3588652.36</v>
+        <v>3602631.33</v>
       </c>
       <c r="C9">
-        <v>564405.24</v>
+        <v>568935.24</v>
       </c>
       <c r="D9">
-        <v>4153057.6</v>
+        <v>4171566.57</v>
       </c>
       <c r="E9">
-        <v>13.59011346242826</v>
+        <v>13.63840730941518</v>
       </c>
       <c r="F9">
-        <v>86.40988653757175</v>
+        <v>86.36159269058481</v>
       </c>
       <c r="G9">
-        <v>-45.45304780826843</v>
+        <v>-45.01524589588976</v>
       </c>
       <c r="H9">
-        <v>-35.19389875585478</v>
+        <v>-34.94145787994088</v>
       </c>
       <c r="I9">
-        <v>36170</v>
+        <v>36353</v>
       </c>
       <c r="J9">
-        <v>1546</v>
+        <v>1556</v>
       </c>
       <c r="K9">
-        <v>37716</v>
+        <v>37909</v>
       </c>
       <c r="L9">
-        <v>26050</v>
+        <v>26184</v>
       </c>
       <c r="M9">
-        <v>159.4263953934741</v>
+        <v>159.3173911549038</v>
       </c>
       <c r="N9">
-        <v>8.84364728880691</v>
+        <v>8.769227874966123</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3602631.33</v>
+        <v>3622402.33</v>
       </c>
       <c r="C9">
-        <v>568935.24</v>
+        <v>570775.24</v>
       </c>
       <c r="D9">
-        <v>4171566.57</v>
+        <v>4193177.57</v>
       </c>
       <c r="E9">
-        <v>13.63840730941518</v>
+        <v>13.61199783390046</v>
       </c>
       <c r="F9">
-        <v>86.36159269058481</v>
+        <v>86.38800216609953</v>
       </c>
       <c r="G9">
-        <v>-45.01524589588976</v>
+        <v>-44.83741907055273</v>
       </c>
       <c r="H9">
-        <v>-34.94145787994088</v>
+        <v>-34.5844209482003</v>
       </c>
       <c r="I9">
-        <v>36353</v>
+        <v>36570</v>
       </c>
       <c r="J9">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="K9">
-        <v>37909</v>
+        <v>38132</v>
       </c>
       <c r="L9">
-        <v>26184</v>
+        <v>26341</v>
       </c>
       <c r="M9">
-        <v>159.3173911549038</v>
+        <v>159.1882453209825</v>
       </c>
       <c r="N9">
-        <v>8.769227874966123</v>
+        <v>8.681057383740676</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3622402.33</v>
+        <v>3655917.35</v>
       </c>
       <c r="C9">
-        <v>570775.24</v>
+        <v>575985.24</v>
       </c>
       <c r="D9">
-        <v>4193177.57</v>
+        <v>4231902.59</v>
       </c>
       <c r="E9">
-        <v>13.61199783390046</v>
+        <v>13.61055052072926</v>
       </c>
       <c r="F9">
-        <v>86.38800216609953</v>
+        <v>86.38944947927074</v>
       </c>
       <c r="G9">
-        <v>-44.83741907055273</v>
+        <v>-44.33389854881037</v>
       </c>
       <c r="H9">
-        <v>-34.5844209482003</v>
+        <v>-33.97918601278863</v>
       </c>
       <c r="I9">
-        <v>36570</v>
+        <v>36973</v>
       </c>
       <c r="J9">
-        <v>1562</v>
+        <v>1575</v>
       </c>
       <c r="K9">
-        <v>38132</v>
+        <v>38548</v>
       </c>
       <c r="L9">
-        <v>26341</v>
+        <v>26628</v>
       </c>
       <c r="M9">
-        <v>159.1882453209825</v>
+        <v>158.9267909719093</v>
       </c>
       <c r="N9">
-        <v>8.681057383740676</v>
+        <v>8.502557174396941</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3655917.35</v>
+        <v>3674831.7</v>
       </c>
       <c r="C9">
-        <v>575985.24</v>
+        <v>578395.24</v>
       </c>
       <c r="D9">
-        <v>4231902.59</v>
+        <v>4253226.94</v>
       </c>
       <c r="E9">
-        <v>13.61055052072926</v>
+        <v>13.59897433547244</v>
       </c>
       <c r="F9">
-        <v>86.38944947927074</v>
+        <v>86.40102566452755</v>
       </c>
       <c r="G9">
-        <v>-44.33389854881037</v>
+        <v>-44.10098406562436</v>
       </c>
       <c r="H9">
-        <v>-33.97918601278863</v>
+        <v>-33.63761899595248</v>
       </c>
       <c r="I9">
-        <v>36973</v>
+        <v>37177</v>
       </c>
       <c r="J9">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="K9">
-        <v>38548</v>
+        <v>38758</v>
       </c>
       <c r="L9">
-        <v>26628</v>
+        <v>26779</v>
       </c>
       <c r="M9">
-        <v>158.9267909719093</v>
+        <v>158.8269517158968</v>
       </c>
       <c r="N9">
-        <v>8.502557174396941</v>
+        <v>8.434394880818274</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3674831.7</v>
+        <v>3702697.74</v>
       </c>
       <c r="C9">
-        <v>578395.24</v>
+        <v>582980.24</v>
       </c>
       <c r="D9">
-        <v>4253226.94</v>
+        <v>4285677.98</v>
       </c>
       <c r="E9">
-        <v>13.59897433547244</v>
+        <v>13.60298750210812</v>
       </c>
       <c r="F9">
-        <v>86.40102566452755</v>
+        <v>86.39701249789186</v>
       </c>
       <c r="G9">
-        <v>-44.10098406562436</v>
+        <v>-43.65786667748834</v>
       </c>
       <c r="H9">
-        <v>-33.63761899595248</v>
+        <v>-33.13439683109686</v>
       </c>
       <c r="I9">
-        <v>37177</v>
+        <v>37363</v>
       </c>
       <c r="J9">
-        <v>1581</v>
+        <v>1590</v>
       </c>
       <c r="K9">
-        <v>38758</v>
+        <v>38953</v>
       </c>
       <c r="L9">
-        <v>26779</v>
+        <v>26914</v>
       </c>
       <c r="M9">
-        <v>158.8269517158968</v>
+        <v>159.2360102548859</v>
       </c>
       <c r="N9">
-        <v>8.434394880818274</v>
+        <v>8.713667476979792</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3702697.74</v>
+        <v>3731465.66</v>
       </c>
       <c r="C9">
-        <v>582980.24</v>
+        <v>585140.24</v>
       </c>
       <c r="D9">
-        <v>4285677.98</v>
+        <v>4316605.9</v>
       </c>
       <c r="E9">
-        <v>13.60298750210812</v>
+        <v>13.55556317985851</v>
       </c>
       <c r="F9">
-        <v>86.39701249789186</v>
+        <v>86.44443682014149</v>
       </c>
       <c r="G9">
-        <v>-43.65786667748834</v>
+        <v>-43.44911344774486</v>
       </c>
       <c r="H9">
-        <v>-33.13439683109686</v>
+        <v>-32.61488796005552</v>
       </c>
       <c r="I9">
-        <v>37363</v>
+        <v>37568</v>
       </c>
       <c r="J9">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="K9">
-        <v>38953</v>
+        <v>39163</v>
       </c>
       <c r="L9">
-        <v>26914</v>
+        <v>27067</v>
       </c>
       <c r="M9">
-        <v>159.2360102548859</v>
+        <v>159.4785495252522</v>
       </c>
       <c r="N9">
-        <v>8.713667476979792</v>
+        <v>8.879253976833045</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3731465.66</v>
+        <v>3747024.58</v>
       </c>
       <c r="C9">
-        <v>585140.24</v>
+        <v>587360.24</v>
       </c>
       <c r="D9">
-        <v>4316605.9</v>
+        <v>4334384.82</v>
       </c>
       <c r="E9">
-        <v>13.55556317985851</v>
+        <v>13.55117887294557</v>
       </c>
       <c r="F9">
-        <v>86.44443682014149</v>
+        <v>86.44882112705442</v>
       </c>
       <c r="G9">
-        <v>-43.44911344774486</v>
+        <v>-43.23456151717517</v>
       </c>
       <c r="H9">
-        <v>-32.61488796005552</v>
+        <v>-32.3339153710111</v>
       </c>
       <c r="I9">
-        <v>37568</v>
+        <v>37741</v>
       </c>
       <c r="J9">
-        <v>1595</v>
+        <v>1603</v>
       </c>
       <c r="K9">
-        <v>39163</v>
+        <v>39344</v>
       </c>
       <c r="L9">
-        <v>27067</v>
+        <v>27198</v>
       </c>
       <c r="M9">
-        <v>159.4785495252522</v>
+        <v>159.364101036841</v>
       </c>
       <c r="N9">
-        <v>8.879253976833045</v>
+        <v>8.801117662738879</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3747024.58</v>
+        <v>3783252.78</v>
       </c>
       <c r="C9">
-        <v>587360.24</v>
+        <v>593895.24</v>
       </c>
       <c r="D9">
-        <v>4334384.82</v>
+        <v>4377148.02</v>
       </c>
       <c r="E9">
-        <v>13.55117887294557</v>
+        <v>13.56808673790291</v>
       </c>
       <c r="F9">
-        <v>86.44882112705442</v>
+        <v>86.4319132620971</v>
       </c>
       <c r="G9">
-        <v>-43.23456151717517</v>
+        <v>-42.6029863521874</v>
       </c>
       <c r="H9">
-        <v>-32.3339153710111</v>
+        <v>-31.67968415506432</v>
       </c>
       <c r="I9">
-        <v>37741</v>
+        <v>38197</v>
       </c>
       <c r="J9">
-        <v>1603</v>
+        <v>1623</v>
       </c>
       <c r="K9">
-        <v>39344</v>
+        <v>39820</v>
       </c>
       <c r="L9">
-        <v>27198</v>
+        <v>27507</v>
       </c>
       <c r="M9">
-        <v>159.364101036841</v>
+        <v>159.1285134692987</v>
       </c>
       <c r="N9">
-        <v>8.801117662738879</v>
+        <v>8.640277231993942</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3783252.78</v>
+        <v>3804760.4</v>
       </c>
       <c r="C9">
-        <v>593895.24</v>
+        <v>599905.24</v>
       </c>
       <c r="D9">
-        <v>4377148.02</v>
+        <v>4404665.64</v>
       </c>
       <c r="E9">
-        <v>13.56808673790291</v>
+        <v>13.61976796949337</v>
       </c>
       <c r="F9">
-        <v>86.4319132620971</v>
+        <v>86.38023203050665</v>
       </c>
       <c r="G9">
-        <v>-42.6029863521874</v>
+        <v>-42.02214981942895</v>
       </c>
       <c r="H9">
-        <v>-31.67968415506432</v>
+        <v>-31.29128626654869</v>
       </c>
       <c r="I9">
-        <v>38197</v>
+        <v>38407</v>
       </c>
       <c r="J9">
-        <v>1623</v>
+        <v>1640</v>
       </c>
       <c r="K9">
-        <v>39820</v>
+        <v>40047</v>
       </c>
       <c r="L9">
-        <v>27507</v>
+        <v>27687</v>
       </c>
       <c r="M9">
-        <v>159.1285134692987</v>
+        <v>159.0878621735833</v>
       </c>
       <c r="N9">
-        <v>8.640277231993942</v>
+        <v>8.612523764434421</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3804760.4</v>
+        <v>3819835.6</v>
       </c>
       <c r="C9">
-        <v>599905.24</v>
+        <v>602080.24</v>
       </c>
       <c r="D9">
-        <v>4404665.64</v>
+        <v>4421915.84</v>
       </c>
       <c r="E9">
-        <v>13.61976796949337</v>
+        <v>13.61582313606403</v>
       </c>
       <c r="F9">
-        <v>86.38023203050665</v>
+        <v>86.38417686393598</v>
       </c>
       <c r="G9">
-        <v>-42.02214981942895</v>
+        <v>-41.81194691447892</v>
       </c>
       <c r="H9">
-        <v>-31.29128626654869</v>
+        <v>-31.01904899208732</v>
       </c>
       <c r="I9">
-        <v>38407</v>
+        <v>38572</v>
       </c>
       <c r="J9">
-        <v>1640</v>
+        <v>1649</v>
       </c>
       <c r="K9">
-        <v>40047</v>
+        <v>40221</v>
       </c>
       <c r="L9">
-        <v>27687</v>
+        <v>27814</v>
       </c>
       <c r="M9">
-        <v>159.0878621735833</v>
+        <v>158.9816581577623</v>
       </c>
       <c r="N9">
-        <v>8.612523764434421</v>
+        <v>8.540016119698791</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3819835.6</v>
+        <v>3831655.92</v>
       </c>
       <c r="C9">
-        <v>602080.24</v>
+        <v>604610.24</v>
       </c>
       <c r="D9">
-        <v>4421915.84</v>
+        <v>4436266.16</v>
       </c>
       <c r="E9">
-        <v>13.61582313606403</v>
+        <v>13.62880896217462</v>
       </c>
       <c r="F9">
-        <v>86.38417686393598</v>
+        <v>86.37119103782537</v>
       </c>
       <c r="G9">
-        <v>-41.81194691447892</v>
+        <v>-41.5674350296405</v>
       </c>
       <c r="H9">
-        <v>-31.01904899208732</v>
+        <v>-30.80559035140188</v>
       </c>
       <c r="I9">
-        <v>38572</v>
+        <v>38736</v>
       </c>
       <c r="J9">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="K9">
-        <v>40221</v>
+        <v>40393</v>
       </c>
       <c r="L9">
-        <v>27814</v>
+        <v>27942</v>
       </c>
       <c r="M9">
-        <v>158.9816581577623</v>
+        <v>158.7669515424809</v>
       </c>
       <c r="N9">
-        <v>8.540016119698791</v>
+        <v>8.39343154035992</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3831655.92</v>
+        <v>3845699.89</v>
       </c>
       <c r="C9">
-        <v>604610.24</v>
+        <v>606140.24</v>
       </c>
       <c r="D9">
-        <v>4436266.16</v>
+        <v>4451840.13</v>
       </c>
       <c r="E9">
-        <v>13.62880896217462</v>
+        <v>13.61549881172395</v>
       </c>
       <c r="F9">
-        <v>86.37119103782537</v>
+        <v>86.38450118827605</v>
       </c>
       <c r="G9">
-        <v>-41.5674350296405</v>
+        <v>-41.4195681585722</v>
       </c>
       <c r="H9">
-        <v>-30.80559035140188</v>
+        <v>-30.55197566533356</v>
       </c>
       <c r="I9">
-        <v>38736</v>
+        <v>38930</v>
       </c>
       <c r="J9">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="K9">
-        <v>40393</v>
+        <v>40593</v>
       </c>
       <c r="L9">
-        <v>27942</v>
+        <v>28079</v>
       </c>
       <c r="M9">
-        <v>158.7669515424809</v>
+        <v>158.5469614302503</v>
       </c>
       <c r="N9">
-        <v>8.39343154035992</v>
+        <v>8.24323981004107</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3845699.89</v>
+        <v>3873874.99</v>
       </c>
       <c r="C9">
-        <v>606140.24</v>
+        <v>613025.24</v>
       </c>
       <c r="D9">
-        <v>4451840.13</v>
+        <v>4486900.23</v>
       </c>
       <c r="E9">
-        <v>13.61549881172395</v>
+        <v>13.66255563030426</v>
       </c>
       <c r="F9">
-        <v>86.38450118827605</v>
+        <v>86.33744436969573</v>
       </c>
       <c r="G9">
-        <v>-41.4195681585722</v>
+        <v>-40.75416723876488</v>
       </c>
       <c r="H9">
-        <v>-30.55197566533356</v>
+        <v>-30.04317230407292</v>
       </c>
       <c r="I9">
-        <v>38930</v>
+        <v>39365</v>
       </c>
       <c r="J9">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="K9">
-        <v>40593</v>
+        <v>41048</v>
       </c>
       <c r="L9">
-        <v>28079</v>
+        <v>28383</v>
       </c>
       <c r="M9">
-        <v>158.5469614302503</v>
+        <v>158.0840725081915</v>
       </c>
       <c r="N9">
-        <v>8.24323981004107</v>
+        <v>7.927216114955193</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3873874.99</v>
+        <v>3894767.96</v>
       </c>
       <c r="C9">
-        <v>613025.24</v>
+        <v>616550.24</v>
       </c>
       <c r="D9">
-        <v>4486900.23</v>
+        <v>4511318.2</v>
       </c>
       <c r="E9">
-        <v>13.66255563030426</v>
+        <v>13.66674246121677</v>
       </c>
       <c r="F9">
-        <v>86.33744436969573</v>
+        <v>86.33325753878323</v>
       </c>
       <c r="G9">
-        <v>-40.75416723876488</v>
+        <v>-40.41349356522519</v>
       </c>
       <c r="H9">
-        <v>-30.04317230407292</v>
+        <v>-29.66587414496372</v>
       </c>
       <c r="I9">
-        <v>39365</v>
+        <v>39580</v>
       </c>
       <c r="J9">
-        <v>1683</v>
+        <v>1694</v>
       </c>
       <c r="K9">
-        <v>41048</v>
+        <v>41274</v>
       </c>
       <c r="L9">
-        <v>28383</v>
+        <v>28559</v>
       </c>
       <c r="M9">
-        <v>158.0840725081915</v>
+        <v>157.9648517104941</v>
       </c>
       <c r="N9">
-        <v>7.927216114955193</v>
+        <v>7.845821648110207</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3894767.96</v>
+        <v>3912398.62</v>
       </c>
       <c r="C9">
-        <v>616550.24</v>
+        <v>619711.24</v>
       </c>
       <c r="D9">
-        <v>4511318.2</v>
+        <v>4532109.86</v>
       </c>
       <c r="E9">
-        <v>13.66674246121677</v>
+        <v>13.67379121740884</v>
       </c>
       <c r="F9">
-        <v>86.33325753878323</v>
+        <v>86.32620878259117</v>
       </c>
       <c r="G9">
-        <v>-40.41349356522519</v>
+        <v>-40.10799867669782</v>
       </c>
       <c r="H9">
-        <v>-29.66587414496372</v>
+        <v>-29.3474887951604</v>
       </c>
       <c r="I9">
-        <v>39580</v>
+        <v>39761</v>
       </c>
       <c r="J9">
-        <v>1694</v>
+        <v>1703</v>
       </c>
       <c r="K9">
-        <v>41274</v>
+        <v>41464</v>
       </c>
       <c r="L9">
-        <v>28559</v>
+        <v>28699</v>
       </c>
       <c r="M9">
-        <v>157.9648517104941</v>
+        <v>157.9187379351197</v>
       </c>
       <c r="N9">
-        <v>7.845821648110207</v>
+        <v>7.814338834429235</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3912398.62</v>
+        <v>3973856.42</v>
       </c>
       <c r="C9">
-        <v>619711.24</v>
+        <v>622826.24</v>
       </c>
       <c r="D9">
-        <v>4532109.86</v>
+        <v>4596682.66</v>
       </c>
       <c r="E9">
-        <v>13.67379121740884</v>
+        <v>13.54947221873263</v>
       </c>
       <c r="F9">
-        <v>86.32620878259117</v>
+        <v>86.45052778126737</v>
       </c>
       <c r="G9">
-        <v>-40.10799867669782</v>
+        <v>-39.80694945880388</v>
       </c>
       <c r="H9">
-        <v>-29.3474887951604</v>
+        <v>-28.23764587656619</v>
       </c>
       <c r="I9">
-        <v>39761</v>
+        <v>39942</v>
       </c>
       <c r="J9">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="K9">
-        <v>41464</v>
+        <v>41655</v>
       </c>
       <c r="L9">
-        <v>28699</v>
+        <v>28842</v>
       </c>
       <c r="M9">
-        <v>157.9187379351197</v>
+        <v>159.3746154912974</v>
       </c>
       <c r="N9">
-        <v>7.814338834429235</v>
+        <v>8.808296094951862</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3973856.42</v>
+        <v>3999051.08</v>
       </c>
       <c r="C9">
-        <v>622826.24</v>
+        <v>625176.24</v>
       </c>
       <c r="D9">
-        <v>4596682.66</v>
+        <v>4624227.32</v>
       </c>
       <c r="E9">
-        <v>13.54947221873263</v>
+        <v>13.51958276999237</v>
       </c>
       <c r="F9">
-        <v>86.45052778126737</v>
+        <v>86.48041723000762</v>
       </c>
       <c r="G9">
-        <v>-39.80694945880388</v>
+        <v>-39.57983367644407</v>
       </c>
       <c r="H9">
-        <v>-28.23764587656619</v>
+        <v>-27.78266514202331</v>
       </c>
       <c r="I9">
-        <v>39942</v>
+        <v>40123</v>
       </c>
       <c r="J9">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="K9">
-        <v>41655</v>
+        <v>41841</v>
       </c>
       <c r="L9">
-        <v>28842</v>
+        <v>28990</v>
       </c>
       <c r="M9">
-        <v>159.3746154912974</v>
+        <v>159.5111183166609</v>
       </c>
       <c r="N9">
-        <v>8.808296094951862</v>
+        <v>8.90148935408015</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3999051.08</v>
+        <v>4037834.59</v>
       </c>
       <c r="C9">
-        <v>625176.24</v>
+        <v>634141.24</v>
       </c>
       <c r="D9">
-        <v>4624227.32</v>
+        <v>4671975.83</v>
       </c>
       <c r="E9">
-        <v>13.51958276999237</v>
+        <v>13.57329881563193</v>
       </c>
       <c r="F9">
-        <v>86.48041723000762</v>
+        <v>86.42670118436807</v>
       </c>
       <c r="G9">
-        <v>-39.57983367644407</v>
+        <v>-38.71341112799489</v>
       </c>
       <c r="H9">
-        <v>-27.78266514202331</v>
+        <v>-27.08228855952724</v>
       </c>
       <c r="I9">
-        <v>40123</v>
+        <v>40587</v>
       </c>
       <c r="J9">
-        <v>1718</v>
+        <v>1742</v>
       </c>
       <c r="K9">
-        <v>41841</v>
+        <v>42329</v>
       </c>
       <c r="L9">
-        <v>28990</v>
+        <v>29304</v>
       </c>
       <c r="M9">
-        <v>159.5111183166609</v>
+        <v>159.4313346300846</v>
       </c>
       <c r="N9">
-        <v>8.90148935408015</v>
+        <v>8.847019406241952</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4037834.59</v>
+        <v>4057571.61</v>
       </c>
       <c r="C9">
-        <v>634141.24</v>
+        <v>639401.24</v>
       </c>
       <c r="D9">
-        <v>4671975.83</v>
+        <v>4696972.85</v>
       </c>
       <c r="E9">
-        <v>13.57329881563193</v>
+        <v>13.61304951975611</v>
       </c>
       <c r="F9">
-        <v>86.42670118436807</v>
+        <v>86.3869504802439</v>
       </c>
       <c r="G9">
-        <v>-38.71341112799489</v>
+        <v>-38.20505835556403</v>
       </c>
       <c r="H9">
-        <v>-27.08228855952724</v>
+        <v>-26.72586525961815</v>
       </c>
       <c r="I9">
-        <v>40587</v>
+        <v>40821</v>
       </c>
       <c r="J9">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="K9">
-        <v>42329</v>
+        <v>42573</v>
       </c>
       <c r="L9">
-        <v>29304</v>
+        <v>29482</v>
       </c>
       <c r="M9">
-        <v>159.4313346300846</v>
+        <v>159.3166287904484</v>
       </c>
       <c r="N9">
-        <v>8.847019406241952</v>
+        <v>8.768707393224794</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4057571.61</v>
+        <v>4077135.58</v>
       </c>
       <c r="C9">
-        <v>639401.24</v>
+        <v>640931.24</v>
       </c>
       <c r="D9">
-        <v>4696972.85</v>
+        <v>4718066.82</v>
       </c>
       <c r="E9">
-        <v>13.61304951975611</v>
+        <v>13.58461557354544</v>
       </c>
       <c r="F9">
-        <v>86.3869504802439</v>
+        <v>86.41538442645455</v>
       </c>
       <c r="G9">
-        <v>-38.20505835556403</v>
+        <v>-38.05719148449573</v>
       </c>
       <c r="H9">
-        <v>-26.72586525961815</v>
+        <v>-26.37256700351249</v>
       </c>
       <c r="I9">
-        <v>40821</v>
+        <v>41025</v>
       </c>
       <c r="J9">
-        <v>1752</v>
+        <v>1759</v>
       </c>
       <c r="K9">
-        <v>42573</v>
+        <v>42784</v>
       </c>
       <c r="L9">
-        <v>29482</v>
+        <v>29638</v>
       </c>
       <c r="M9">
-        <v>159.3166287904484</v>
+        <v>159.1897840610028</v>
       </c>
       <c r="N9">
-        <v>8.768707393224794</v>
+        <v>8.682107912893144</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4077135.58</v>
+        <v>4091742.57</v>
       </c>
       <c r="C9">
-        <v>640931.24</v>
+        <v>642961.24</v>
       </c>
       <c r="D9">
-        <v>4718066.82</v>
+        <v>4734703.81</v>
       </c>
       <c r="E9">
-        <v>13.58461557354544</v>
+        <v>13.5797563227086</v>
       </c>
       <c r="F9">
-        <v>86.41538442645455</v>
+        <v>86.42024367729141</v>
       </c>
       <c r="G9">
-        <v>-38.05719148449573</v>
+        <v>-37.86100210654237</v>
       </c>
       <c r="H9">
-        <v>-26.37256700351249</v>
+        <v>-26.10878495447273</v>
       </c>
       <c r="I9">
-        <v>41025</v>
+        <v>41166</v>
       </c>
       <c r="J9">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="K9">
-        <v>42784</v>
+        <v>42933</v>
       </c>
       <c r="L9">
-        <v>29638</v>
+        <v>29745</v>
       </c>
       <c r="M9">
-        <v>159.1897840610028</v>
+        <v>159.1764602454194</v>
       </c>
       <c r="N9">
-        <v>8.682107912893144</v>
+        <v>8.673011472618498</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4091742.57</v>
+        <v>4166784.62</v>
       </c>
       <c r="C9">
-        <v>642961.24</v>
+        <v>651076.24</v>
       </c>
       <c r="D9">
-        <v>4734703.81</v>
+        <v>4817860.86</v>
       </c>
       <c r="E9">
-        <v>13.5797563227086</v>
+        <v>13.51380330232285</v>
       </c>
       <c r="F9">
-        <v>86.42024367729141</v>
+        <v>86.48619669767714</v>
       </c>
       <c r="G9">
-        <v>-37.86100210654237</v>
+        <v>-37.0767278197978</v>
       </c>
       <c r="H9">
-        <v>-26.10878495447273</v>
+        <v>-24.75362925756699</v>
       </c>
       <c r="I9">
-        <v>41166</v>
+        <v>41910</v>
       </c>
       <c r="J9">
-        <v>1767</v>
+        <v>1799</v>
       </c>
       <c r="K9">
-        <v>42933</v>
+        <v>43709</v>
       </c>
       <c r="L9">
-        <v>29745</v>
+        <v>30308</v>
       </c>
       <c r="M9">
-        <v>159.1764602454194</v>
+        <v>158.9633383925036</v>
       </c>
       <c r="N9">
-        <v>8.673011472618498</v>
+        <v>8.527508842824695</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4166784.62</v>
+        <v>4191701.42</v>
       </c>
       <c r="C9">
-        <v>651076.24</v>
+        <v>659076.24</v>
       </c>
       <c r="D9">
-        <v>4817860.86</v>
+        <v>4850777.66</v>
       </c>
       <c r="E9">
-        <v>13.51380330232285</v>
+        <v>13.58702225077865</v>
       </c>
       <c r="F9">
-        <v>86.48619669767714</v>
+        <v>86.41297774922134</v>
       </c>
       <c r="G9">
-        <v>-37.0767278197978</v>
+        <v>-36.30356770963679</v>
       </c>
       <c r="H9">
-        <v>-24.75362925756699</v>
+        <v>-24.30366629055501</v>
       </c>
       <c r="I9">
-        <v>41910</v>
+        <v>42177</v>
       </c>
       <c r="J9">
-        <v>1799</v>
+        <v>1814</v>
       </c>
       <c r="K9">
-        <v>43709</v>
+        <v>43991</v>
       </c>
       <c r="L9">
-        <v>30308</v>
+        <v>30540</v>
       </c>
       <c r="M9">
-        <v>158.9633383925036</v>
+        <v>158.8335841519319</v>
       </c>
       <c r="N9">
-        <v>8.527508842824695</v>
+        <v>8.438922979987096</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4191701.42</v>
+        <v>4236794.19</v>
       </c>
       <c r="C9">
-        <v>659076.24</v>
+        <v>667716.24</v>
       </c>
       <c r="D9">
-        <v>4850777.66</v>
+        <v>4904510.430000001</v>
       </c>
       <c r="E9">
-        <v>13.58702225077865</v>
+        <v>13.61433010552288</v>
       </c>
       <c r="F9">
-        <v>86.41297774922134</v>
+        <v>86.38566989447712</v>
       </c>
       <c r="G9">
-        <v>-36.30356770963679</v>
+        <v>-35.46855479066289</v>
       </c>
       <c r="H9">
-        <v>-24.30366629055501</v>
+        <v>-23.48935319336804</v>
       </c>
       <c r="I9">
-        <v>42177</v>
+        <v>42605</v>
       </c>
       <c r="J9">
-        <v>1814</v>
+        <v>1835</v>
       </c>
       <c r="K9">
-        <v>43991</v>
+        <v>44440</v>
       </c>
       <c r="L9">
-        <v>30540</v>
+        <v>30876</v>
       </c>
       <c r="M9">
-        <v>158.8335841519319</v>
+        <v>158.8453954527789</v>
       </c>
       <c r="N9">
-        <v>8.438922979987096</v>
+        <v>8.44698679564473</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4236794.19</v>
+        <v>4253494.15</v>
       </c>
       <c r="C9">
-        <v>667716.24</v>
+        <v>672306.24</v>
       </c>
       <c r="D9">
-        <v>4904510.430000001</v>
+        <v>4925800.390000001</v>
       </c>
       <c r="E9">
-        <v>13.61433010552288</v>
+        <v>13.64866999817668</v>
       </c>
       <c r="F9">
-        <v>86.38566989447712</v>
+        <v>86.35133000182331</v>
       </c>
       <c r="G9">
-        <v>-35.46855479066289</v>
+        <v>-35.02495417745801</v>
       </c>
       <c r="H9">
-        <v>-23.48935319336804</v>
+        <v>-23.18777499911431</v>
       </c>
       <c r="I9">
-        <v>42605</v>
+        <v>42821</v>
       </c>
       <c r="J9">
-        <v>1835</v>
+        <v>1846</v>
       </c>
       <c r="K9">
-        <v>44440</v>
+        <v>44667</v>
       </c>
       <c r="L9">
-        <v>30876</v>
+        <v>31057</v>
       </c>
       <c r="M9">
-        <v>158.8453954527789</v>
+        <v>158.6051579354091</v>
       </c>
       <c r="N9">
-        <v>8.44698679564473</v>
+        <v>8.282971749443613</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4253494.15</v>
+        <v>4299059.48</v>
       </c>
       <c r="C9">
-        <v>672306.24</v>
+        <v>694926.24</v>
       </c>
       <c r="D9">
-        <v>4925800.390000001</v>
+        <v>4993985.720000001</v>
       </c>
       <c r="E9">
-        <v>13.64866999817668</v>
+        <v>13.91526285741962</v>
       </c>
       <c r="F9">
-        <v>86.35133000182331</v>
+        <v>86.08473714258037</v>
       </c>
       <c r="G9">
-        <v>-35.02495417745801</v>
+        <v>-32.83884396597775</v>
       </c>
       <c r="H9">
-        <v>-23.18777499911431</v>
+        <v>-22.36492812151848</v>
       </c>
       <c r="I9">
-        <v>42821</v>
+        <v>43250</v>
       </c>
       <c r="J9">
-        <v>1846</v>
+        <v>1885</v>
       </c>
       <c r="K9">
-        <v>44667</v>
+        <v>45135</v>
       </c>
       <c r="L9">
-        <v>31057</v>
+        <v>31375</v>
       </c>
       <c r="M9">
-        <v>158.6051579354091</v>
+        <v>159.1708596015936</v>
       </c>
       <c r="N9">
-        <v>8.282971749443613</v>
+        <v>8.669187799006274</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4299059.48</v>
+        <v>4349777.58</v>
       </c>
       <c r="C9">
-        <v>694926.24</v>
+        <v>696076.24</v>
       </c>
       <c r="D9">
-        <v>4993985.720000001</v>
+        <v>5045853.82</v>
       </c>
       <c r="E9">
-        <v>13.91526285741962</v>
+        <v>13.79501398239079</v>
       </c>
       <c r="F9">
-        <v>86.08473714258037</v>
+        <v>86.2049860176092</v>
       </c>
       <c r="G9">
-        <v>-32.83884396597775</v>
+        <v>-32.7277022001421</v>
       </c>
       <c r="H9">
-        <v>-22.36492812151848</v>
+        <v>-21.44902934008548</v>
       </c>
       <c r="I9">
-        <v>43250</v>
+        <v>43517</v>
       </c>
       <c r="J9">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="K9">
-        <v>45135</v>
+        <v>45406</v>
       </c>
       <c r="L9">
-        <v>31375</v>
+        <v>31583</v>
       </c>
       <c r="M9">
-        <v>159.1708596015936</v>
+        <v>159.7648678086312</v>
       </c>
       <c r="N9">
-        <v>8.669187799006274</v>
+        <v>9.074729300549267</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4349777.58</v>
+        <v>4363314.1</v>
       </c>
       <c r="C9">
-        <v>696076.24</v>
+        <v>698176.24</v>
       </c>
       <c r="D9">
-        <v>5045853.82</v>
+        <v>5061490.34</v>
       </c>
       <c r="E9">
-        <v>13.79501398239079</v>
+        <v>13.79388664406697</v>
       </c>
       <c r="F9">
-        <v>86.2049860176092</v>
+        <v>86.20611335593303</v>
       </c>
       <c r="G9">
-        <v>-32.7277022001421</v>
+        <v>-32.52474767122484</v>
       </c>
       <c r="H9">
-        <v>-21.44902934008548</v>
+        <v>-21.20457849959968</v>
       </c>
       <c r="I9">
-        <v>43517</v>
+        <v>43665</v>
       </c>
       <c r="J9">
-        <v>1889</v>
+        <v>1895</v>
       </c>
       <c r="K9">
-        <v>45406</v>
+        <v>45560</v>
       </c>
       <c r="L9">
-        <v>31583</v>
+        <v>31707</v>
       </c>
       <c r="M9">
-        <v>159.7648678086312</v>
+        <v>159.6332147475321</v>
       </c>
       <c r="N9">
-        <v>9.074729300549267</v>
+        <v>8.984847074262948</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual.xlsx
@@ -767,43 +767,43 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>4363314.1</v>
+        <v>4400309.12</v>
       </c>
       <c r="C9">
-        <v>698176.24</v>
+        <v>707071.24</v>
       </c>
       <c r="D9">
-        <v>5061490.34</v>
+        <v>5107380.36</v>
       </c>
       <c r="E9">
-        <v>13.79388664406697</v>
+        <v>13.84410774528647</v>
       </c>
       <c r="F9">
-        <v>86.20611335593303</v>
+        <v>86.15589225471354</v>
       </c>
       <c r="G9">
-        <v>-32.52474767122484</v>
+        <v>-31.66509027373956</v>
       </c>
       <c r="H9">
-        <v>-21.20457849959968</v>
+        <v>-20.53649957438185</v>
       </c>
       <c r="I9">
-        <v>43665</v>
+        <v>44196</v>
       </c>
       <c r="J9">
-        <v>1895</v>
+        <v>1914</v>
       </c>
       <c r="K9">
-        <v>45560</v>
+        <v>46110</v>
       </c>
       <c r="L9">
-        <v>31707</v>
+        <v>32071</v>
       </c>
       <c r="M9">
-        <v>159.6332147475321</v>
+        <v>159.2522952199807</v>
       </c>
       <c r="N9">
-        <v>8.984847074262948</v>
+        <v>8.724785554337755</v>
       </c>
     </row>
   </sheetData>
